--- a/media/file/fedex_2_day.xlsx
+++ b/media/file/fedex_2_day.xlsx
@@ -1,15 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C35BEC2-C1F9-4E58-A8E7-CC348F2D7E7D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="10350" yWindow="1740" windowWidth="16275" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -27,7 +35,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -100,7 +108,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -116,7 +124,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -191,6 +199,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -226,6 +251,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -401,11 +443,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -445,31 +487,31 @@
         <v>1</v>
       </c>
       <c r="B2" s="3">
-        <v>16.824149999999999</v>
+        <v>13.619549999999998</v>
       </c>
       <c r="C2" s="3">
-        <v>16.824149999999999</v>
+        <v>13.619549999999998</v>
       </c>
       <c r="D2" s="3">
-        <v>16.824149999999999</v>
+        <v>13.619549999999998</v>
       </c>
       <c r="E2" s="3">
-        <v>16.824149999999999</v>
+        <v>13.619549999999998</v>
       </c>
       <c r="F2" s="3">
-        <v>16.95645</v>
+        <v>13.726650000000001</v>
       </c>
       <c r="G2" s="3">
-        <v>17.706150000000001</v>
+        <v>14.333549999999999</v>
       </c>
       <c r="H2" s="3">
-        <v>18.014849999999999</v>
+        <v>14.583449999999999</v>
       </c>
       <c r="I2" s="3">
-        <v>24.453450000000004</v>
+        <v>19.795650000000002</v>
       </c>
       <c r="J2" s="3">
-        <v>30.627450000000007</v>
+        <v>24.793650000000003</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -477,31 +519,31 @@
         <v>2</v>
       </c>
       <c r="B3" s="3">
-        <v>16.824149999999999</v>
+        <v>13.619549999999998</v>
       </c>
       <c r="C3" s="3">
-        <v>16.824149999999999</v>
+        <v>13.619549999999998</v>
       </c>
       <c r="D3" s="3">
-        <v>16.824149999999999</v>
+        <v>13.619549999999998</v>
       </c>
       <c r="E3" s="3">
-        <v>16.824149999999999</v>
+        <v>13.619549999999998</v>
       </c>
       <c r="F3" s="3">
-        <v>18.654300000000003</v>
+        <v>15.101100000000001</v>
       </c>
       <c r="G3" s="3">
-        <v>20.175750000000001</v>
+        <v>16.332750000000001</v>
       </c>
       <c r="H3" s="3">
-        <v>21.057750000000006</v>
+        <v>17.046750000000003</v>
       </c>
       <c r="I3" s="3">
-        <v>26.901000000000003</v>
+        <v>21.777000000000001</v>
       </c>
       <c r="J3" s="3">
-        <v>36.625050000000002</v>
+        <v>29.648849999999999</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -509,31 +551,31 @@
         <v>3</v>
       </c>
       <c r="B4" s="3">
-        <v>16.824149999999999</v>
+        <v>13.619549999999998</v>
       </c>
       <c r="C4" s="3">
-        <v>16.824149999999999</v>
+        <v>13.619549999999998</v>
       </c>
       <c r="D4" s="3">
-        <v>16.824149999999999</v>
+        <v>13.619549999999998</v>
       </c>
       <c r="E4" s="3">
-        <v>16.824149999999999</v>
+        <v>13.619549999999998</v>
       </c>
       <c r="F4" s="3">
-        <v>20.903400000000001</v>
+        <v>16.921800000000001</v>
       </c>
       <c r="G4" s="3">
-        <v>22.799700000000005</v>
+        <v>18.456900000000001</v>
       </c>
       <c r="H4" s="3">
-        <v>23.615550000000006</v>
+        <v>19.117350000000002</v>
       </c>
       <c r="I4" s="3">
-        <v>30.230550000000004</v>
+        <v>24.472350000000002</v>
       </c>
       <c r="J4" s="3">
-        <v>37.220400000000005</v>
+        <v>30.130800000000001</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -541,31 +583,31 @@
         <v>4</v>
       </c>
       <c r="B5" s="3">
-        <v>16.824149999999999</v>
+        <v>13.619549999999998</v>
       </c>
       <c r="C5" s="3">
-        <v>16.824149999999999</v>
+        <v>13.619549999999998</v>
       </c>
       <c r="D5" s="3">
-        <v>16.824149999999999</v>
+        <v>13.619549999999998</v>
       </c>
       <c r="E5" s="3">
-        <v>18.918900000000001</v>
+        <v>15.315300000000001</v>
       </c>
       <c r="F5" s="3">
-        <v>23.615550000000006</v>
+        <v>19.117350000000002</v>
       </c>
       <c r="G5" s="3">
-        <v>25.533900000000003</v>
+        <v>20.670300000000001</v>
       </c>
       <c r="H5" s="3">
-        <v>26.371800000000004</v>
+        <v>21.348600000000001</v>
       </c>
       <c r="I5" s="3">
-        <v>31.950450000000004</v>
+        <v>25.864650000000001</v>
       </c>
       <c r="J5" s="3">
-        <v>38.675700000000006</v>
+        <v>31.308900000000001</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -573,31 +615,31 @@
         <v>5</v>
       </c>
       <c r="B6" s="3">
-        <v>16.824149999999999</v>
+        <v>13.619549999999998</v>
       </c>
       <c r="C6" s="3">
-        <v>16.824149999999999</v>
+        <v>13.619549999999998</v>
       </c>
       <c r="D6" s="3">
-        <v>16.824149999999999</v>
+        <v>13.619549999999998</v>
       </c>
       <c r="E6" s="3">
-        <v>20.616750000000003</v>
+        <v>16.68975</v>
       </c>
       <c r="F6" s="3">
-        <v>25.952850000000002</v>
+        <v>21.009449999999998</v>
       </c>
       <c r="G6" s="3">
-        <v>28.047600000000006</v>
+        <v>22.705200000000001</v>
       </c>
       <c r="H6" s="3">
-        <v>29.502900000000004</v>
+        <v>23.883300000000002</v>
       </c>
       <c r="I6" s="3">
-        <v>34.420050000000003</v>
+        <v>27.863849999999999</v>
       </c>
       <c r="J6" s="3">
-        <v>39.910500000000006</v>
+        <v>32.308500000000002</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -605,31 +647,31 @@
         <v>6</v>
       </c>
       <c r="B7" s="3">
-        <v>16.824149999999999</v>
+        <v>13.619549999999998</v>
       </c>
       <c r="C7" s="3">
-        <v>16.824149999999999</v>
+        <v>13.619549999999998</v>
       </c>
       <c r="D7" s="3">
-        <v>17.265150000000002</v>
+        <v>13.976550000000001</v>
       </c>
       <c r="E7" s="3">
-        <v>22.182300000000001</v>
+        <v>17.957100000000001</v>
       </c>
       <c r="F7" s="3">
-        <v>28.444500000000005</v>
+        <v>23.026500000000002</v>
       </c>
       <c r="G7" s="3">
-        <v>30.737700000000004</v>
+        <v>24.882899999999999</v>
       </c>
       <c r="H7" s="3">
-        <v>31.99455</v>
+        <v>25.90035</v>
       </c>
       <c r="I7" s="3">
-        <v>38.521349999999998</v>
+        <v>31.183949999999996</v>
       </c>
       <c r="J7" s="3">
-        <v>43.262100000000011</v>
+        <v>35.021700000000003</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -637,31 +679,31 @@
         <v>7</v>
       </c>
       <c r="B8" s="3">
-        <v>16.824149999999999</v>
+        <v>13.619549999999998</v>
       </c>
       <c r="C8" s="3">
-        <v>16.824149999999999</v>
+        <v>13.619549999999998</v>
       </c>
       <c r="D8" s="3">
-        <v>18.411750000000001</v>
+        <v>14.90475</v>
       </c>
       <c r="E8" s="3">
-        <v>23.924250000000001</v>
+        <v>19.367249999999999</v>
       </c>
       <c r="F8" s="3">
-        <v>31.575600000000005</v>
+        <v>25.561200000000003</v>
       </c>
       <c r="G8" s="3">
-        <v>33.758550000000007</v>
+        <v>27.32835</v>
       </c>
       <c r="H8" s="3">
-        <v>34.883100000000006</v>
+        <v>28.238700000000001</v>
       </c>
       <c r="I8" s="3">
-        <v>38.940300000000001</v>
+        <v>31.523099999999999</v>
       </c>
       <c r="J8" s="3">
-        <v>43.592850000000006</v>
+        <v>35.289450000000002</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -669,31 +711,31 @@
         <v>8</v>
       </c>
       <c r="B9" s="3">
-        <v>16.824149999999999</v>
+        <v>13.619549999999998</v>
       </c>
       <c r="C9" s="3">
-        <v>16.95645</v>
+        <v>13.726650000000001</v>
       </c>
       <c r="D9" s="3">
-        <v>19.47015</v>
+        <v>15.76155</v>
       </c>
       <c r="E9" s="3">
-        <v>25.776450000000001</v>
+        <v>20.86665</v>
       </c>
       <c r="F9" s="3">
-        <v>34.530300000000004</v>
+        <v>27.953100000000003</v>
       </c>
       <c r="G9" s="3">
-        <v>36.80145000000001</v>
+        <v>29.791650000000004</v>
       </c>
       <c r="H9" s="3">
-        <v>38.014200000000002</v>
+        <v>30.773399999999999</v>
       </c>
       <c r="I9" s="3">
-        <v>43.195950000000003</v>
+        <v>34.968150000000001</v>
       </c>
       <c r="J9" s="3">
-        <v>48.377700000000004</v>
+        <v>39.1629</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -701,31 +743,31 @@
         <v>9</v>
       </c>
       <c r="B10" s="3">
-        <v>16.824149999999999</v>
+        <v>13.619549999999998</v>
       </c>
       <c r="C10" s="3">
-        <v>17.551800000000004</v>
+        <v>14.208600000000001</v>
       </c>
       <c r="D10" s="3">
-        <v>20.749050000000004</v>
+        <v>16.796850000000003</v>
       </c>
       <c r="E10" s="3">
-        <v>27.408150000000003</v>
+        <v>22.187550000000002</v>
       </c>
       <c r="F10" s="3">
-        <v>37.264500000000005</v>
+        <v>30.166499999999999</v>
       </c>
       <c r="G10" s="3">
-        <v>40.042800000000007</v>
+        <v>32.415600000000005</v>
       </c>
       <c r="H10" s="3">
-        <v>41.38785</v>
+        <v>33.504449999999999</v>
       </c>
       <c r="I10" s="3">
-        <v>43.614900000000006</v>
+        <v>35.307300000000005</v>
       </c>
       <c r="J10" s="3">
-        <v>50.759100000000004</v>
+        <v>41.090699999999998</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -733,31 +775,31 @@
         <v>10</v>
       </c>
       <c r="B11" s="3">
-        <v>16.824149999999999</v>
+        <v>13.619549999999998</v>
       </c>
       <c r="C11" s="3">
-        <v>18.455849999999998</v>
+        <v>14.940449999999998</v>
       </c>
       <c r="D11" s="3">
-        <v>22.05</v>
+        <v>17.849999999999998</v>
       </c>
       <c r="E11" s="3">
-        <v>29.039850000000001</v>
+        <v>23.50845</v>
       </c>
       <c r="F11" s="3">
-        <v>39.535649999999997</v>
+        <v>32.005049999999997</v>
       </c>
       <c r="G11" s="3">
-        <v>43.240049999999997</v>
+        <v>35.00385</v>
       </c>
       <c r="H11" s="3">
-        <v>44.474850000000011</v>
+        <v>36.003450000000008</v>
       </c>
       <c r="I11" s="3">
-        <v>49.590450000000004</v>
+        <v>40.144649999999999</v>
       </c>
       <c r="J11" s="3">
-        <v>52.743600000000008</v>
+        <v>42.697200000000002</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -765,31 +807,31 @@
         <v>11</v>
       </c>
       <c r="B12" s="3">
-        <v>16.824149999999999</v>
+        <v>13.619549999999998</v>
       </c>
       <c r="C12" s="3">
-        <v>19.249650000000003</v>
+        <v>15.583050000000002</v>
       </c>
       <c r="D12" s="3">
-        <v>22.887900000000002</v>
+        <v>18.528300000000002</v>
       </c>
       <c r="E12" s="3">
-        <v>30.781800000000004</v>
+        <v>24.918600000000001</v>
       </c>
       <c r="F12" s="3">
-        <v>42.402150000000006</v>
+        <v>34.32555</v>
       </c>
       <c r="G12" s="3">
-        <v>46.084500000000006</v>
+        <v>37.3065</v>
       </c>
       <c r="H12" s="3">
-        <v>47.914650000000002</v>
+        <v>38.788049999999998</v>
       </c>
       <c r="I12" s="3">
-        <v>50.185800000000008</v>
+        <v>40.626600000000003</v>
       </c>
       <c r="J12" s="3">
-        <v>52.964100000000002</v>
+        <v>42.875700000000002</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -797,31 +839,31 @@
         <v>12</v>
       </c>
       <c r="B13" s="3">
-        <v>17.331300000000002</v>
+        <v>14.030099999999999</v>
       </c>
       <c r="C13" s="3">
-        <v>20.175750000000001</v>
+        <v>16.332750000000001</v>
       </c>
       <c r="D13" s="3">
-        <v>23.968349999999997</v>
+        <v>19.402949999999997</v>
       </c>
       <c r="E13" s="3">
-        <v>32.325300000000006</v>
+        <v>26.168099999999999</v>
       </c>
       <c r="F13" s="3">
-        <v>45.423000000000009</v>
+        <v>36.771000000000001</v>
       </c>
       <c r="G13" s="3">
-        <v>49.171500000000009</v>
+        <v>39.805500000000002</v>
       </c>
       <c r="H13" s="3">
-        <v>50.494499999999995</v>
+        <v>40.876499999999993</v>
       </c>
       <c r="I13" s="3">
-        <v>50.957549999999998</v>
+        <v>41.251349999999995</v>
       </c>
       <c r="J13" s="3">
-        <v>53.162550000000003</v>
+        <v>43.036349999999999</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -829,31 +871,31 @@
         <v>13</v>
       </c>
       <c r="B14" s="3">
-        <v>18.301500000000004</v>
+        <v>14.815500000000002</v>
       </c>
       <c r="C14" s="3">
-        <v>21.035699999999999</v>
+        <v>17.0289</v>
       </c>
       <c r="D14" s="3">
-        <v>24.740100000000002</v>
+        <v>20.027699999999999</v>
       </c>
       <c r="E14" s="3">
-        <v>34.067250000000001</v>
+        <v>27.578250000000001</v>
       </c>
       <c r="F14" s="3">
-        <v>48.135149999999996</v>
+        <v>38.966549999999998</v>
       </c>
       <c r="G14" s="3">
-        <v>51.39855</v>
+        <v>41.608350000000002</v>
       </c>
       <c r="H14" s="3">
-        <v>53.713799999999999</v>
+        <v>43.482599999999998</v>
       </c>
       <c r="I14" s="3">
-        <v>55.896750000000011</v>
+        <v>45.249750000000006</v>
       </c>
       <c r="J14" s="3">
-        <v>57.572550000000007</v>
+        <v>46.606349999999999</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -861,31 +903,31 @@
         <v>14</v>
       </c>
       <c r="B15" s="3">
-        <v>19.029150000000001</v>
+        <v>15.40455</v>
       </c>
       <c r="C15" s="3">
-        <v>21.9177</v>
+        <v>17.742899999999999</v>
       </c>
       <c r="D15" s="3">
-        <v>26.129250000000003</v>
+        <v>21.152250000000002</v>
       </c>
       <c r="E15" s="3">
-        <v>35.809200000000004</v>
+        <v>28.988399999999999</v>
       </c>
       <c r="F15" s="3">
-        <v>50.869350000000004</v>
+        <v>41.179949999999998</v>
       </c>
       <c r="G15" s="3">
-        <v>53.868150000000007</v>
+        <v>43.607550000000003</v>
       </c>
       <c r="H15" s="3">
-        <v>55.962900000000005</v>
+        <v>45.3033</v>
       </c>
       <c r="I15" s="3">
-        <v>57.947400000000002</v>
+        <v>46.909800000000004</v>
       </c>
       <c r="J15" s="3">
-        <v>59.711400000000005</v>
+        <v>48.337800000000001</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -893,31 +935,31 @@
         <v>15</v>
       </c>
       <c r="B16" s="3">
-        <v>19.602450000000001</v>
+        <v>15.868650000000001</v>
       </c>
       <c r="C16" s="3">
-        <v>22.380750000000003</v>
+        <v>18.117750000000001</v>
       </c>
       <c r="D16" s="3">
-        <v>27.209700000000002</v>
+        <v>22.026900000000001</v>
       </c>
       <c r="E16" s="3">
-        <v>37.066050000000004</v>
+        <v>30.005850000000002</v>
       </c>
       <c r="F16" s="3">
-        <v>53.361000000000004</v>
+        <v>43.196999999999996</v>
       </c>
       <c r="G16" s="3">
-        <v>56.117250000000006</v>
+        <v>45.428249999999998</v>
       </c>
       <c r="H16" s="3">
-        <v>58.344300000000004</v>
+        <v>47.231099999999998</v>
       </c>
       <c r="I16" s="3">
-        <v>60.439050000000002</v>
+        <v>48.926850000000002</v>
       </c>
       <c r="J16" s="3">
-        <v>62.776350000000001</v>
+        <v>50.818950000000001</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -925,31 +967,31 @@
         <v>16</v>
       </c>
       <c r="B17" s="3">
-        <v>19.977300000000003</v>
+        <v>16.172100000000004</v>
       </c>
       <c r="C17" s="3">
-        <v>23.020199999999999</v>
+        <v>18.635400000000001</v>
       </c>
       <c r="D17" s="3">
-        <v>28.246050000000004</v>
+        <v>22.865850000000002</v>
       </c>
       <c r="E17" s="3">
-        <v>38.168550000000003</v>
+        <v>30.898349999999997</v>
       </c>
       <c r="F17" s="3">
-        <v>55.566000000000003</v>
+        <v>44.981999999999999</v>
       </c>
       <c r="G17" s="3">
-        <v>58.807350000000007</v>
+        <v>47.60595</v>
       </c>
       <c r="H17" s="3">
-        <v>60.65955000000001</v>
+        <v>49.105350000000008</v>
       </c>
       <c r="I17" s="3">
-        <v>62.798400000000008</v>
+        <v>50.836800000000004</v>
       </c>
       <c r="J17" s="3">
-        <v>66.083849999999998</v>
+        <v>53.496449999999996</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -957,31 +999,31 @@
         <v>17</v>
       </c>
       <c r="B18" s="3">
-        <v>20.506500000000003</v>
+        <v>16.6005</v>
       </c>
       <c r="C18" s="3">
-        <v>23.593499999999999</v>
+        <v>19.099499999999999</v>
       </c>
       <c r="D18" s="3">
-        <v>29.326500000000003</v>
+        <v>23.740500000000001</v>
       </c>
       <c r="E18" s="3">
-        <v>39.822300000000006</v>
+        <v>32.237099999999998</v>
       </c>
       <c r="F18" s="3">
-        <v>57.881250000000001</v>
+        <v>46.856249999999996</v>
       </c>
       <c r="G18" s="3">
-        <v>61.740000000000009</v>
+        <v>49.980000000000004</v>
       </c>
       <c r="H18" s="3">
-        <v>63.305550000000004</v>
+        <v>51.247350000000004</v>
       </c>
       <c r="I18" s="3">
-        <v>65.620800000000017</v>
+        <v>53.121600000000008</v>
       </c>
       <c r="J18" s="3">
-        <v>68.663700000000006</v>
+        <v>55.584900000000005</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -989,31 +1031,31 @@
         <v>18</v>
       </c>
       <c r="B19" s="3">
-        <v>21.079800000000002</v>
+        <v>17.064599999999999</v>
       </c>
       <c r="C19" s="3">
-        <v>24.255000000000003</v>
+        <v>19.635000000000002</v>
       </c>
       <c r="D19" s="3">
-        <v>30.274650000000005</v>
+        <v>24.508050000000001</v>
       </c>
       <c r="E19" s="3">
-        <v>41.079149999999998</v>
+        <v>33.254549999999995</v>
       </c>
       <c r="F19" s="3">
-        <v>60.130350000000007</v>
+        <v>48.676949999999998</v>
       </c>
       <c r="G19" s="3">
-        <v>64.297800000000009</v>
+        <v>52.050600000000003</v>
       </c>
       <c r="H19" s="3">
-        <v>66.194100000000006</v>
+        <v>53.585700000000003</v>
       </c>
       <c r="I19" s="3">
-        <v>66.811500000000009</v>
+        <v>54.085500000000003</v>
       </c>
       <c r="J19" s="3">
-        <v>68.95035</v>
+        <v>55.816949999999999</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -1021,31 +1063,31 @@
         <v>19</v>
       </c>
       <c r="B20" s="3">
-        <v>21.763350000000003</v>
+        <v>17.61795</v>
       </c>
       <c r="C20" s="3">
-        <v>24.828300000000002</v>
+        <v>20.0991</v>
       </c>
       <c r="D20" s="3">
-        <v>31.046400000000002</v>
+        <v>25.1328</v>
       </c>
       <c r="E20" s="3">
-        <v>42.600600000000007</v>
+        <v>34.486200000000004</v>
       </c>
       <c r="F20" s="3">
-        <v>62.203050000000012</v>
+        <v>50.354850000000006</v>
       </c>
       <c r="G20" s="3">
-        <v>67.098150000000004</v>
+        <v>54.317549999999997</v>
       </c>
       <c r="H20" s="3">
-        <v>68.928300000000007</v>
+        <v>55.799099999999996</v>
       </c>
       <c r="I20" s="3">
-        <v>71.46405</v>
+        <v>57.851849999999992</v>
       </c>
       <c r="J20" s="3">
-        <v>74.771550000000005</v>
+        <v>60.529349999999994</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -1053,31 +1095,31 @@
         <v>20</v>
       </c>
       <c r="B21" s="3">
-        <v>22.380750000000003</v>
+        <v>18.117750000000001</v>
       </c>
       <c r="C21" s="3">
-        <v>25.732350000000004</v>
+        <v>20.830950000000001</v>
       </c>
       <c r="D21" s="3">
-        <v>32.126850000000005</v>
+        <v>26.007450000000002</v>
       </c>
       <c r="E21" s="3">
-        <v>44.430749999999996</v>
+        <v>35.967749999999995</v>
       </c>
       <c r="F21" s="3">
-        <v>64.297800000000009</v>
+        <v>52.050600000000003</v>
       </c>
       <c r="G21" s="3">
-        <v>69.281100000000009</v>
+        <v>56.084699999999998</v>
       </c>
       <c r="H21" s="3">
-        <v>71.375850000000014</v>
+        <v>57.780450000000002</v>
       </c>
       <c r="I21" s="3">
-        <v>73.867500000000007</v>
+        <v>59.797500000000007</v>
       </c>
       <c r="J21" s="3">
-        <v>75.543300000000002</v>
+        <v>61.1541</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -1085,31 +1127,31 @@
         <v>21</v>
       </c>
       <c r="B22" s="3">
-        <v>23.26275</v>
+        <v>18.83175</v>
       </c>
       <c r="C22" s="3">
-        <v>26.592300000000002</v>
+        <v>21.527100000000001</v>
       </c>
       <c r="D22" s="3">
-        <v>33.185250000000003</v>
+        <v>26.864250000000002</v>
       </c>
       <c r="E22" s="3">
-        <v>45.797850000000004</v>
+        <v>37.074450000000006</v>
       </c>
       <c r="F22" s="3">
-        <v>64.518300000000011</v>
+        <v>52.229100000000003</v>
       </c>
       <c r="G22" s="3">
-        <v>71.552250000000015</v>
+        <v>57.92325000000001</v>
       </c>
       <c r="H22" s="3">
-        <v>73.757250000000013</v>
+        <v>59.70825</v>
       </c>
       <c r="I22" s="3">
-        <v>74.48490000000001</v>
+        <v>60.2973</v>
       </c>
       <c r="J22" s="3">
-        <v>75.807900000000018</v>
+        <v>61.368300000000005</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -1117,31 +1159,31 @@
         <v>22</v>
       </c>
       <c r="B23" s="3">
-        <v>23.880150000000004</v>
+        <v>19.33155</v>
       </c>
       <c r="C23" s="3">
-        <v>27.716850000000004</v>
+        <v>22.437450000000002</v>
       </c>
       <c r="D23" s="3">
-        <v>34.001100000000001</v>
+        <v>27.524699999999996</v>
       </c>
       <c r="E23" s="3">
-        <v>46.988549999999996</v>
+        <v>38.038349999999994</v>
       </c>
       <c r="F23" s="3">
-        <v>68.509349999999998</v>
+        <v>55.459949999999999</v>
       </c>
       <c r="G23" s="3">
-        <v>74.154150000000001</v>
+        <v>60.02955</v>
       </c>
       <c r="H23" s="3">
-        <v>76.40325</v>
+        <v>61.850249999999996</v>
       </c>
       <c r="I23" s="3">
-        <v>77.130899999999997</v>
+        <v>62.439299999999996</v>
       </c>
       <c r="J23" s="3">
-        <v>80.68095000000001</v>
+        <v>65.313150000000007</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -1149,31 +1191,31 @@
         <v>23</v>
       </c>
       <c r="B24" s="3">
-        <v>24.365250000000003</v>
+        <v>19.724250000000001</v>
       </c>
       <c r="C24" s="3">
-        <v>28.224000000000004</v>
+        <v>22.848000000000003</v>
       </c>
       <c r="D24" s="3">
-        <v>35.103600000000007</v>
+        <v>28.417200000000001</v>
       </c>
       <c r="E24" s="3">
-        <v>48.245400000000004</v>
+        <v>39.055799999999998</v>
       </c>
       <c r="F24" s="3">
-        <v>70.846650000000011</v>
+        <v>57.352050000000013</v>
       </c>
       <c r="G24" s="3">
-        <v>76.469400000000007</v>
+        <v>61.903800000000004</v>
       </c>
       <c r="H24" s="3">
-        <v>79.071299999999994</v>
+        <v>64.010099999999994</v>
       </c>
       <c r="I24" s="3">
-        <v>79.865099999999998</v>
+        <v>64.652699999999996</v>
       </c>
       <c r="J24" s="3">
-        <v>81.166049999999998</v>
+        <v>65.705849999999998</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -1181,31 +1223,31 @@
         <v>24</v>
       </c>
       <c r="B25" s="3">
-        <v>24.850350000000002</v>
+        <v>20.116949999999999</v>
       </c>
       <c r="C25" s="3">
-        <v>29.216250000000006</v>
+        <v>23.651250000000001</v>
       </c>
       <c r="D25" s="3">
-        <v>36.095850000000006</v>
+        <v>29.22045</v>
       </c>
       <c r="E25" s="3">
-        <v>49.965300000000006</v>
+        <v>40.448100000000004</v>
       </c>
       <c r="F25" s="3">
-        <v>73.316250000000011</v>
+        <v>59.35125</v>
       </c>
       <c r="G25" s="3">
-        <v>78.938999999999993</v>
+        <v>63.902999999999992</v>
       </c>
       <c r="H25" s="3">
-        <v>79.688700000000011</v>
+        <v>64.509900000000002</v>
       </c>
       <c r="I25" s="3">
-        <v>80.460450000000009</v>
+        <v>65.134650000000008</v>
       </c>
       <c r="J25" s="3">
-        <v>83.922300000000007</v>
+        <v>67.937100000000001</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -1213,31 +1255,31 @@
         <v>25</v>
       </c>
       <c r="B26" s="3">
-        <v>25.533900000000003</v>
+        <v>20.670300000000001</v>
       </c>
       <c r="C26" s="3">
-        <v>29.965950000000003</v>
+        <v>24.258150000000001</v>
       </c>
       <c r="D26" s="3">
-        <v>36.713249999999995</v>
+        <v>29.720249999999997</v>
       </c>
       <c r="E26" s="3">
-        <v>51.552900000000001</v>
+        <v>41.7333</v>
       </c>
       <c r="F26" s="3">
-        <v>75.587400000000002</v>
+        <v>61.189799999999998</v>
       </c>
       <c r="G26" s="3">
-        <v>81.98190000000001</v>
+        <v>66.366299999999995</v>
       </c>
       <c r="H26" s="3">
-        <v>85.267350000000008</v>
+        <v>69.025950000000009</v>
       </c>
       <c r="I26" s="3">
-        <v>88.486650000000012</v>
+        <v>71.632050000000007</v>
       </c>
       <c r="J26" s="3">
-        <v>92.345400000000012</v>
+        <v>74.755800000000008</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -1245,31 +1287,31 @@
         <v>26</v>
       </c>
       <c r="B27" s="3">
-        <v>26.195400000000006</v>
+        <v>21.205800000000004</v>
       </c>
       <c r="C27" s="3">
-        <v>30.671550000000003</v>
+        <v>24.829350000000002</v>
       </c>
       <c r="D27" s="3">
-        <v>37.948050000000009</v>
+        <v>30.719850000000005</v>
       </c>
       <c r="E27" s="3">
-        <v>53.14050000000001</v>
+        <v>43.018500000000003</v>
       </c>
       <c r="F27" s="3">
-        <v>78.034950000000009</v>
+        <v>63.171149999999997</v>
       </c>
       <c r="G27" s="3">
-        <v>84.694050000000004</v>
+        <v>68.561849999999993</v>
       </c>
       <c r="H27" s="3">
-        <v>87.538500000000013</v>
+        <v>70.864500000000007</v>
       </c>
       <c r="I27" s="3">
-        <v>90.713700000000003</v>
+        <v>73.434899999999999</v>
       </c>
       <c r="J27" s="3">
-        <v>95.101650000000006</v>
+        <v>76.987050000000011</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -1277,31 +1319,31 @@
         <v>27</v>
       </c>
       <c r="B28" s="3">
-        <v>26.901000000000003</v>
+        <v>21.777000000000001</v>
       </c>
       <c r="C28" s="3">
-        <v>31.487400000000001</v>
+        <v>25.489799999999999</v>
       </c>
       <c r="D28" s="3">
-        <v>38.83005</v>
+        <v>31.43385</v>
       </c>
       <c r="E28" s="3">
-        <v>54.882450000000006</v>
+        <v>44.428650000000005</v>
       </c>
       <c r="F28" s="3">
-        <v>80.548650000000009</v>
+        <v>65.206050000000005</v>
       </c>
       <c r="G28" s="3">
-        <v>87.428250000000006</v>
+        <v>70.77525</v>
       </c>
       <c r="H28" s="3">
-        <v>90.162450000000007</v>
+        <v>72.988649999999993</v>
       </c>
       <c r="I28" s="3">
-        <v>93.536100000000019</v>
+        <v>75.719700000000003</v>
       </c>
       <c r="J28" s="3">
-        <v>97.857900000000015</v>
+        <v>79.218299999999999</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -1309,31 +1351,31 @@
         <v>28</v>
       </c>
       <c r="B29" s="3">
-        <v>27.672750000000004</v>
+        <v>22.401750000000003</v>
       </c>
       <c r="C29" s="3">
-        <v>32.369399999999999</v>
+        <v>26.203799999999998</v>
       </c>
       <c r="D29" s="3">
-        <v>39.623850000000004</v>
+        <v>32.076450000000001</v>
       </c>
       <c r="E29" s="3">
-        <v>56.117250000000006</v>
+        <v>45.428249999999998</v>
       </c>
       <c r="F29" s="3">
-        <v>82.511100000000013</v>
+        <v>66.794700000000006</v>
       </c>
       <c r="G29" s="3">
-        <v>89.567099999999996</v>
+        <v>72.506699999999995</v>
       </c>
       <c r="H29" s="3">
-        <v>92.257200000000012</v>
+        <v>74.684399999999997</v>
       </c>
       <c r="I29" s="3">
-        <v>96.402600000000007</v>
+        <v>78.040199999999999</v>
       </c>
       <c r="J29" s="3">
-        <v>101.18745</v>
+        <v>81.913650000000004</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -1341,31 +1383,31 @@
         <v>29</v>
       </c>
       <c r="B30" s="3">
-        <v>28.2681</v>
+        <v>22.883700000000001</v>
       </c>
       <c r="C30" s="3">
-        <v>32.920650000000002</v>
+        <v>26.65005</v>
       </c>
       <c r="D30" s="3">
-        <v>40.704300000000011</v>
+        <v>32.951100000000004</v>
       </c>
       <c r="E30" s="3">
-        <v>57.330000000000005</v>
+        <v>46.41</v>
       </c>
       <c r="F30" s="3">
-        <v>84.649950000000004</v>
+        <v>68.526150000000001</v>
       </c>
       <c r="G30" s="3">
-        <v>91.728000000000023</v>
+        <v>74.256000000000014</v>
       </c>
       <c r="H30" s="3">
-        <v>94.881150000000005</v>
+        <v>76.808549999999997</v>
       </c>
       <c r="I30" s="3">
-        <v>98.73990000000002</v>
+        <v>79.932300000000012</v>
       </c>
       <c r="J30" s="3">
-        <v>103.92165000000001</v>
+        <v>84.127050000000011</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -1373,31 +1415,31 @@
         <v>30</v>
       </c>
       <c r="B31" s="3">
-        <v>28.378350000000001</v>
+        <v>22.972950000000001</v>
       </c>
       <c r="C31" s="3">
-        <v>33.714450000000006</v>
+        <v>27.292650000000002</v>
       </c>
       <c r="D31" s="3">
-        <v>42.005250000000004</v>
+        <v>34.004249999999999</v>
       </c>
       <c r="E31" s="3">
-        <v>59.116050000000001</v>
+        <v>47.855850000000004</v>
       </c>
       <c r="F31" s="3">
-        <v>86.854950000000017</v>
+        <v>70.311150000000012</v>
       </c>
       <c r="G31" s="3">
-        <v>94.109400000000008</v>
+        <v>76.183800000000005</v>
       </c>
       <c r="H31" s="3">
-        <v>97.218450000000018</v>
+        <v>78.70065000000001</v>
       </c>
       <c r="I31" s="3">
-        <v>101.78279999999999</v>
+        <v>82.395599999999988</v>
       </c>
       <c r="J31" s="3">
-        <v>106.50149999999999</v>
+        <v>86.215499999999992</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -1405,31 +1447,31 @@
         <v>31</v>
       </c>
       <c r="B32" s="3">
-        <v>28.466550000000002</v>
+        <v>23.044350000000001</v>
       </c>
       <c r="C32" s="3">
-        <v>34.728750000000005</v>
+        <v>28.113750000000003</v>
       </c>
       <c r="D32" s="3">
-        <v>43.041600000000003</v>
+        <v>34.843199999999996</v>
       </c>
       <c r="E32" s="3">
-        <v>60.350850000000008</v>
+        <v>48.855450000000005</v>
       </c>
       <c r="F32" s="3">
-        <v>88.773300000000006</v>
+        <v>71.864100000000008</v>
       </c>
       <c r="G32" s="3">
-        <v>96.071849999999998</v>
+        <v>77.772449999999992</v>
       </c>
       <c r="H32" s="3">
-        <v>99.732150000000004</v>
+        <v>80.735550000000003</v>
       </c>
       <c r="I32" s="3">
-        <v>104.18625000000002</v>
+        <v>84.341250000000002</v>
       </c>
       <c r="J32" s="3">
-        <v>109.61055</v>
+        <v>88.732349999999997</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -1437,31 +1479,31 @@
         <v>32</v>
       </c>
       <c r="B33" s="3">
-        <v>28.576800000000006</v>
+        <v>23.133600000000005</v>
       </c>
       <c r="C33" s="3">
-        <v>35.412300000000002</v>
+        <v>28.667099999999998</v>
       </c>
       <c r="D33" s="3">
-        <v>44.166150000000002</v>
+        <v>35.753550000000004</v>
       </c>
       <c r="E33" s="3">
-        <v>61.717950000000002</v>
+        <v>49.962149999999994</v>
       </c>
       <c r="F33" s="3">
-        <v>91.264950000000013</v>
+        <v>73.881150000000005</v>
       </c>
       <c r="G33" s="3">
-        <v>98.651700000000005</v>
+        <v>79.860900000000001</v>
       </c>
       <c r="H33" s="3">
-        <v>102.04740000000001</v>
+        <v>82.609799999999993</v>
       </c>
       <c r="I33" s="3">
-        <v>107.36145</v>
+        <v>86.911649999999995</v>
       </c>
       <c r="J33" s="3">
-        <v>112.43295000000002</v>
+        <v>91.017150000000001</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -1469,31 +1511,31 @@
         <v>33</v>
       </c>
       <c r="B34" s="3">
-        <v>30.649500000000003</v>
+        <v>24.811499999999999</v>
       </c>
       <c r="C34" s="3">
-        <v>36.2502</v>
+        <v>29.345400000000001</v>
       </c>
       <c r="D34" s="3">
-        <v>45.290700000000001</v>
+        <v>36.663899999999998</v>
       </c>
       <c r="E34" s="3">
-        <v>62.974800000000002</v>
+        <v>50.979599999999998</v>
       </c>
       <c r="F34" s="3">
-        <v>93.602250000000012</v>
+        <v>75.773250000000004</v>
       </c>
       <c r="G34" s="3">
-        <v>100.83465000000001</v>
+        <v>81.628050000000002</v>
       </c>
       <c r="H34" s="3">
-        <v>104.53905</v>
+        <v>84.62684999999999</v>
       </c>
       <c r="I34" s="3">
-        <v>107.67015000000001</v>
+        <v>87.161550000000005</v>
       </c>
       <c r="J34" s="3">
-        <v>113.49135000000001</v>
+        <v>91.873949999999994</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
@@ -1501,31 +1543,31 @@
         <v>34</v>
       </c>
       <c r="B35" s="3">
-        <v>31.509450000000001</v>
+        <v>25.507649999999998</v>
       </c>
       <c r="C35" s="3">
-        <v>36.867600000000003</v>
+        <v>29.845200000000002</v>
       </c>
       <c r="D35" s="3">
-        <v>46.172700000000006</v>
+        <v>37.377900000000004</v>
       </c>
       <c r="E35" s="3">
-        <v>65.069550000000007</v>
+        <v>52.675350000000002</v>
       </c>
       <c r="F35" s="3">
-        <v>96.336449999999999</v>
+        <v>77.986649999999997</v>
       </c>
       <c r="G35" s="3">
-        <v>103.26015000000001</v>
+        <v>83.591549999999998</v>
       </c>
       <c r="H35" s="3">
-        <v>107.0307</v>
+        <v>86.643900000000002</v>
       </c>
       <c r="I35" s="3">
-        <v>109.39005</v>
+        <v>88.553849999999997</v>
       </c>
       <c r="J35" s="3">
-        <v>113.60160000000002</v>
+        <v>91.963200000000001</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
@@ -1533,31 +1575,31 @@
         <v>35</v>
       </c>
       <c r="B36" s="3">
-        <v>32.060699999999997</v>
+        <v>25.953899999999997</v>
       </c>
       <c r="C36" s="3">
-        <v>37.859850000000002</v>
+        <v>30.64845</v>
       </c>
       <c r="D36" s="3">
-        <v>47.076750000000011</v>
+        <v>38.109750000000005</v>
       </c>
       <c r="E36" s="3">
-        <v>66.282300000000006</v>
+        <v>53.6571</v>
       </c>
       <c r="F36" s="3">
-        <v>99.136800000000022</v>
+        <v>80.253600000000006</v>
       </c>
       <c r="G36" s="3">
-        <v>105.75180000000002</v>
+        <v>85.60860000000001</v>
       </c>
       <c r="H36" s="3">
-        <v>108.50805000000001</v>
+        <v>87.839849999999998</v>
       </c>
       <c r="I36" s="3">
-        <v>109.56645</v>
+        <v>88.696650000000005</v>
       </c>
       <c r="J36" s="3">
-        <v>113.73390000000001</v>
+        <v>92.070299999999989</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
@@ -1565,31 +1607,31 @@
         <v>36</v>
       </c>
       <c r="B37" s="3">
-        <v>32.52375</v>
+        <v>26.328749999999999</v>
       </c>
       <c r="C37" s="3">
-        <v>38.609550000000013</v>
+        <v>31.255350000000007</v>
       </c>
       <c r="D37" s="3">
-        <v>47.980800000000009</v>
+        <v>38.841600000000007</v>
       </c>
       <c r="E37" s="3">
-        <v>67.561200000000014</v>
+        <v>54.692400000000006</v>
       </c>
       <c r="F37" s="3">
-        <v>101.69460000000001</v>
+        <v>82.324200000000005</v>
       </c>
       <c r="G37" s="3">
-        <v>108.99315</v>
+        <v>88.232549999999989</v>
       </c>
       <c r="H37" s="3">
-        <v>111.22020000000001</v>
+        <v>90.03540000000001</v>
       </c>
       <c r="I37" s="3">
-        <v>112.30065</v>
+        <v>90.910049999999998</v>
       </c>
       <c r="J37" s="3">
-        <v>116.1153</v>
+        <v>93.998099999999994</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
@@ -1597,31 +1639,31 @@
         <v>37</v>
       </c>
       <c r="B38" s="3">
-        <v>33.052950000000003</v>
+        <v>26.757150000000003</v>
       </c>
       <c r="C38" s="3">
-        <v>39.138750000000002</v>
+        <v>31.683749999999996</v>
       </c>
       <c r="D38" s="3">
-        <v>49.061250000000001</v>
+        <v>39.716250000000002</v>
       </c>
       <c r="E38" s="3">
-        <v>69.214950000000002</v>
+        <v>56.031149999999997</v>
       </c>
       <c r="F38" s="3">
-        <v>104.34060000000001</v>
+        <v>84.466200000000001</v>
       </c>
       <c r="G38" s="3">
-        <v>111.79350000000002</v>
+        <v>90.499500000000012</v>
       </c>
       <c r="H38" s="3">
-        <v>115.14510000000001</v>
+        <v>93.212699999999998</v>
       </c>
       <c r="I38" s="3">
-        <v>121.49550000000001</v>
+        <v>98.353500000000011</v>
       </c>
       <c r="J38" s="3">
-        <v>123.50205</v>
+        <v>99.977849999999989</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
@@ -1629,31 +1671,31 @@
         <v>38</v>
       </c>
       <c r="B39" s="3">
-        <v>33.538050000000005</v>
+        <v>27.149850000000001</v>
       </c>
       <c r="C39" s="3">
-        <v>39.645900000000005</v>
+        <v>32.094300000000004</v>
       </c>
       <c r="D39" s="3">
-        <v>50.207850000000001</v>
+        <v>40.644449999999999</v>
       </c>
       <c r="E39" s="3">
-        <v>70.537950000000009</v>
+        <v>57.102150000000002</v>
       </c>
       <c r="F39" s="3">
-        <v>106.92045000000002</v>
+        <v>86.554650000000009</v>
       </c>
       <c r="G39" s="3">
-        <v>114.59385</v>
+        <v>92.766449999999992</v>
       </c>
       <c r="H39" s="3">
-        <v>118.188</v>
+        <v>95.676000000000002</v>
       </c>
       <c r="I39" s="3">
-        <v>123.01695000000001</v>
+        <v>99.585149999999999</v>
       </c>
       <c r="J39" s="3">
-        <v>124.22970000000001</v>
+        <v>100.5669</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
@@ -1661,31 +1703,31 @@
         <v>39</v>
       </c>
       <c r="B40" s="3">
-        <v>34.486200000000004</v>
+        <v>27.917400000000001</v>
       </c>
       <c r="C40" s="3">
-        <v>40.638150000000003</v>
+        <v>32.897550000000003</v>
       </c>
       <c r="D40" s="3">
-        <v>50.979600000000012</v>
+        <v>41.269200000000005</v>
       </c>
       <c r="E40" s="3">
-        <v>71.860950000000017</v>
+        <v>58.173150000000007</v>
       </c>
       <c r="F40" s="3">
-        <v>109.41210000000001</v>
+        <v>88.571699999999993</v>
       </c>
       <c r="G40" s="3">
-        <v>117.54855000000001</v>
+        <v>95.158349999999999</v>
       </c>
       <c r="H40" s="3">
-        <v>121.16475000000001</v>
+        <v>98.085750000000004</v>
       </c>
       <c r="I40" s="3">
-        <v>127.11825</v>
+        <v>102.90525</v>
       </c>
       <c r="J40" s="3">
-        <v>132.71895000000001</v>
+        <v>107.43915</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
@@ -1693,31 +1735,31 @@
         <v>40</v>
       </c>
       <c r="B41" s="3">
-        <v>34.574399999999997</v>
+        <v>27.988799999999998</v>
       </c>
       <c r="C41" s="3">
-        <v>41.608350000000002</v>
+        <v>33.682949999999998</v>
       </c>
       <c r="D41" s="3">
-        <v>52.126200000000011</v>
+        <v>42.197400000000002</v>
       </c>
       <c r="E41" s="3">
-        <v>73.404450000000011</v>
+        <v>59.422650000000004</v>
       </c>
       <c r="F41" s="3">
-        <v>111.83760000000001</v>
+        <v>90.535200000000003</v>
       </c>
       <c r="G41" s="3">
-        <v>120.3489</v>
+        <v>97.425299999999993</v>
       </c>
       <c r="H41" s="3">
-        <v>123.78870000000001</v>
+        <v>100.2099</v>
       </c>
       <c r="I41" s="3">
-        <v>129.58785000000003</v>
+        <v>104.90445000000001</v>
       </c>
       <c r="J41" s="3">
-        <v>133.97580000000002</v>
+        <v>108.45659999999999</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
@@ -1725,31 +1767,31 @@
         <v>41</v>
       </c>
       <c r="B42" s="3">
-        <v>36.095850000000006</v>
+        <v>29.22045</v>
       </c>
       <c r="C42" s="3">
-        <v>42.53445</v>
+        <v>34.432650000000002</v>
       </c>
       <c r="D42" s="3">
-        <v>52.6995</v>
+        <v>42.661499999999997</v>
       </c>
       <c r="E42" s="3">
-        <v>74.683350000000004</v>
+        <v>60.457949999999997</v>
       </c>
       <c r="F42" s="3">
-        <v>114.28515</v>
+        <v>92.516549999999995</v>
       </c>
       <c r="G42" s="3">
-        <v>123.36975000000001</v>
+        <v>99.870750000000001</v>
       </c>
       <c r="H42" s="3">
-        <v>127.03005000000002</v>
+        <v>102.83385</v>
       </c>
       <c r="I42" s="3">
-        <v>132.34410000000003</v>
+        <v>107.13570000000001</v>
       </c>
       <c r="J42" s="3">
-        <v>136.97460000000001</v>
+        <v>110.88419999999999</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
@@ -1757,31 +1799,31 @@
         <v>42</v>
       </c>
       <c r="B43" s="3">
-        <v>36.647100000000002</v>
+        <v>29.666699999999999</v>
       </c>
       <c r="C43" s="3">
-        <v>43.482599999999998</v>
+        <v>35.200199999999995</v>
       </c>
       <c r="D43" s="3">
-        <v>53.691750000000006</v>
+        <v>43.464750000000002</v>
       </c>
       <c r="E43" s="3">
-        <v>76.204800000000006</v>
+        <v>61.689600000000006</v>
       </c>
       <c r="F43" s="3">
-        <v>116.64450000000001</v>
+        <v>94.426500000000004</v>
       </c>
       <c r="G43" s="3">
-        <v>126.34650000000001</v>
+        <v>102.28049999999999</v>
       </c>
       <c r="H43" s="3">
-        <v>130.13910000000001</v>
+        <v>105.3507</v>
       </c>
       <c r="I43" s="3">
-        <v>135.2988</v>
+        <v>109.52759999999999</v>
       </c>
       <c r="J43" s="3">
-        <v>137.28330000000003</v>
+        <v>111.1341</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
@@ -1789,31 +1831,31 @@
         <v>43</v>
       </c>
       <c r="B44" s="3">
-        <v>37.330650000000006</v>
+        <v>30.220050000000004</v>
       </c>
       <c r="C44" s="3">
-        <v>44.298450000000003</v>
+        <v>35.86065</v>
       </c>
       <c r="D44" s="3">
-        <v>54.441450000000003</v>
+        <v>44.071650000000005</v>
       </c>
       <c r="E44" s="3">
-        <v>77.417550000000006</v>
+        <v>62.671350000000004</v>
       </c>
       <c r="F44" s="3">
-        <v>119.29050000000002</v>
+        <v>96.568500000000014</v>
       </c>
       <c r="G44" s="3">
-        <v>128.61765</v>
+        <v>104.11904999999999</v>
       </c>
       <c r="H44" s="3">
-        <v>132.76305000000002</v>
+        <v>107.47485</v>
       </c>
       <c r="I44" s="3">
-        <v>137.74635000000001</v>
+        <v>111.50895000000001</v>
       </c>
       <c r="J44" s="3">
-        <v>143.21475000000001</v>
+        <v>115.93575</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
@@ -1821,31 +1863,31 @@
         <v>44</v>
       </c>
       <c r="B45" s="3">
-        <v>37.903950000000009</v>
+        <v>30.684150000000002</v>
       </c>
       <c r="C45" s="3">
-        <v>44.805600000000005</v>
+        <v>36.2712</v>
       </c>
       <c r="D45" s="3">
-        <v>55.610100000000003</v>
+        <v>45.017700000000005</v>
       </c>
       <c r="E45" s="3">
-        <v>78.71850000000002</v>
+        <v>63.724500000000006</v>
       </c>
       <c r="F45" s="3">
-        <v>121.56165000000001</v>
+        <v>98.407050000000012</v>
       </c>
       <c r="G45" s="3">
-        <v>130.75650000000002</v>
+        <v>105.8505</v>
       </c>
       <c r="H45" s="3">
-        <v>135.32085000000001</v>
+        <v>109.54545</v>
       </c>
       <c r="I45" s="3">
-        <v>140.39235000000002</v>
+        <v>113.65095000000001</v>
       </c>
       <c r="J45" s="3">
-        <v>145.57410000000002</v>
+        <v>117.84569999999999</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
@@ -1853,31 +1895,31 @@
         <v>45</v>
       </c>
       <c r="B46" s="3">
-        <v>38.036250000000003</v>
+        <v>30.791250000000002</v>
       </c>
       <c r="C46" s="3">
-        <v>45.819900000000004</v>
+        <v>37.092300000000002</v>
       </c>
       <c r="D46" s="3">
-        <v>56.359800000000007</v>
+        <v>45.624600000000001</v>
       </c>
       <c r="E46" s="3">
-        <v>79.754850000000005</v>
+        <v>64.563450000000003</v>
       </c>
       <c r="F46" s="3">
-        <v>123.70050000000001</v>
+        <v>100.13849999999999</v>
       </c>
       <c r="G46" s="3">
-        <v>133.11584999999999</v>
+        <v>107.76044999999999</v>
       </c>
       <c r="H46" s="3">
-        <v>137.26124999999999</v>
+        <v>111.11624999999999</v>
       </c>
       <c r="I46" s="3">
-        <v>142.3989</v>
+        <v>115.27529999999999</v>
       </c>
       <c r="J46" s="3">
-        <v>146.85299999999998</v>
+        <v>118.88099999999999</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
@@ -1885,31 +1927,31 @@
         <v>46</v>
       </c>
       <c r="B47" s="3">
-        <v>39.116700000000002</v>
+        <v>31.665899999999997</v>
       </c>
       <c r="C47" s="3">
-        <v>46.28295</v>
+        <v>37.467149999999997</v>
       </c>
       <c r="D47" s="3">
-        <v>57.440250000000006</v>
+        <v>46.499250000000004</v>
       </c>
       <c r="E47" s="3">
-        <v>80.548650000000009</v>
+        <v>65.206050000000005</v>
       </c>
       <c r="F47" s="3">
-        <v>125.75115000000001</v>
+        <v>101.79855000000001</v>
       </c>
       <c r="G47" s="3">
-        <v>135.21060000000003</v>
+        <v>109.45620000000001</v>
       </c>
       <c r="H47" s="3">
-        <v>140.52465000000001</v>
+        <v>113.75805</v>
       </c>
       <c r="I47" s="3">
-        <v>143.08245000000002</v>
+        <v>115.82865</v>
       </c>
       <c r="J47" s="3">
-        <v>146.96325000000004</v>
+        <v>118.97025000000002</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
@@ -1917,31 +1959,31 @@
         <v>47</v>
       </c>
       <c r="B48" s="3">
-        <v>39.226950000000002</v>
+        <v>31.75515</v>
       </c>
       <c r="C48" s="3">
-        <v>46.3932</v>
+        <v>37.556399999999996</v>
       </c>
       <c r="D48" s="3">
-        <v>58.322250000000004</v>
+        <v>47.213250000000002</v>
       </c>
       <c r="E48" s="3">
-        <v>80.636849999999995</v>
+        <v>65.277450000000002</v>
       </c>
       <c r="F48" s="3">
-        <v>128.1105</v>
+        <v>103.7085</v>
       </c>
       <c r="G48" s="3">
-        <v>135.45315000000002</v>
+        <v>109.65255000000001</v>
       </c>
       <c r="H48" s="3">
-        <v>141.82560000000001</v>
+        <v>114.8112</v>
       </c>
       <c r="I48" s="3">
-        <v>143.1927</v>
+        <v>115.91789999999999</v>
       </c>
       <c r="J48" s="3">
-        <v>147.07350000000002</v>
+        <v>119.05950000000001</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
@@ -1949,31 +1991,31 @@
         <v>48</v>
       </c>
       <c r="B49" s="3">
-        <v>39.954600000000006</v>
+        <v>32.344200000000008</v>
       </c>
       <c r="C49" s="3">
-        <v>48.091050000000003</v>
+        <v>38.93085</v>
       </c>
       <c r="D49" s="3">
-        <v>59.314500000000002</v>
+        <v>48.016500000000001</v>
       </c>
       <c r="E49" s="3">
-        <v>80.72505000000001</v>
+        <v>65.348849999999999</v>
       </c>
       <c r="F49" s="3">
-        <v>130.33754999999999</v>
+        <v>105.51134999999999</v>
       </c>
       <c r="G49" s="3">
-        <v>139.55445</v>
+        <v>112.97264999999999</v>
       </c>
       <c r="H49" s="3">
-        <v>144.16290000000001</v>
+        <v>116.7033</v>
       </c>
       <c r="I49" s="3">
-        <v>145.57410000000002</v>
+        <v>117.84569999999999</v>
       </c>
       <c r="J49" s="3">
-        <v>147.18375000000003</v>
+        <v>119.14875000000001</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
@@ -1981,31 +2023,31 @@
         <v>49</v>
       </c>
       <c r="B50" s="3">
-        <v>40.064850000000007</v>
+        <v>32.433450000000001</v>
       </c>
       <c r="C50" s="3">
-        <v>48.289500000000004</v>
+        <v>39.091500000000003</v>
       </c>
       <c r="D50" s="3">
-        <v>59.40270000000001</v>
+        <v>48.087900000000005</v>
       </c>
       <c r="E50" s="3">
-        <v>80.835299999999989</v>
+        <v>65.438099999999991</v>
       </c>
       <c r="F50" s="3">
-        <v>132.49845000000002</v>
+        <v>107.26065</v>
       </c>
       <c r="G50" s="3">
-        <v>139.95135000000002</v>
+        <v>113.29395</v>
       </c>
       <c r="H50" s="3">
-        <v>144.40545</v>
+        <v>116.89964999999999</v>
       </c>
       <c r="I50" s="3">
-        <v>145.7946</v>
+        <v>118.02419999999999</v>
       </c>
       <c r="J50" s="3">
-        <v>147.27195000000003</v>
+        <v>119.22015</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
@@ -2013,31 +2055,31 @@
         <v>50</v>
       </c>
       <c r="B51" s="3">
-        <v>40.1751</v>
+        <v>32.5227</v>
       </c>
       <c r="C51" s="3">
-        <v>48.377700000000004</v>
+        <v>39.1629</v>
       </c>
       <c r="D51" s="3">
-        <v>61.166699999999999</v>
+        <v>49.515899999999995</v>
       </c>
       <c r="E51" s="3">
-        <v>80.967600000000004</v>
+        <v>65.545199999999994</v>
       </c>
       <c r="F51" s="3">
-        <v>134.70345000000003</v>
+        <v>109.04565000000001</v>
       </c>
       <c r="G51" s="3">
-        <v>143.23680000000002</v>
+        <v>115.95359999999999</v>
       </c>
       <c r="H51" s="3">
-        <v>144.648</v>
+        <v>117.09599999999999</v>
       </c>
       <c r="I51" s="3">
-        <v>146.03715000000003</v>
+        <v>118.22055000000002</v>
       </c>
       <c r="J51" s="3">
-        <v>147.47040000000001</v>
+        <v>119.38080000000001</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
@@ -2045,31 +2087,31 @@
         <v>51</v>
       </c>
       <c r="B52" s="3">
-        <v>40.505850000000009</v>
+        <v>32.790450000000007</v>
       </c>
       <c r="C52" s="3">
-        <v>48.576150000000005</v>
+        <v>39.323550000000004</v>
       </c>
       <c r="D52" s="3">
-        <v>62.445600000000006</v>
+        <v>50.551200000000001</v>
       </c>
       <c r="E52" s="3">
-        <v>83.613600000000005</v>
+        <v>67.687200000000004</v>
       </c>
       <c r="F52" s="3">
-        <v>141.00975000000003</v>
+        <v>114.15075000000002</v>
       </c>
       <c r="G52" s="3">
-        <v>147.1617</v>
+        <v>119.1309</v>
       </c>
       <c r="H52" s="3">
-        <v>148.59495000000001</v>
+        <v>120.29115</v>
       </c>
       <c r="I52" s="3">
-        <v>150.05025000000001</v>
+        <v>121.46925</v>
       </c>
       <c r="J52" s="3">
-        <v>151.50555</v>
+        <v>122.64734999999999</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
@@ -2077,31 +2119,31 @@
         <v>52</v>
       </c>
       <c r="B53" s="3">
-        <v>43.107750000000003</v>
+        <v>34.896749999999997</v>
       </c>
       <c r="C53" s="3">
-        <v>50.979600000000012</v>
+        <v>41.269200000000005</v>
       </c>
       <c r="D53" s="3">
-        <v>64.341899999999995</v>
+        <v>52.086299999999994</v>
       </c>
       <c r="E53" s="3">
-        <v>87.979500000000016</v>
+        <v>71.221500000000006</v>
       </c>
       <c r="F53" s="3">
-        <v>143.12655000000001</v>
+        <v>115.86435</v>
       </c>
       <c r="G53" s="3">
-        <v>152.91675000000001</v>
+        <v>123.78974999999998</v>
       </c>
       <c r="H53" s="3">
-        <v>158.03235000000001</v>
+        <v>127.93095</v>
       </c>
       <c r="I53" s="3">
-        <v>159.57585</v>
+        <v>129.18045000000001</v>
       </c>
       <c r="J53" s="3">
-        <v>164.22840000000002</v>
+        <v>132.9468</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
@@ -2109,31 +2151,31 @@
         <v>53</v>
       </c>
       <c r="B54" s="3">
-        <v>43.90155</v>
+        <v>35.539349999999999</v>
       </c>
       <c r="C54" s="3">
-        <v>51.92775000000001</v>
+        <v>42.036750000000005</v>
       </c>
       <c r="D54" s="3">
-        <v>65.1798</v>
+        <v>52.764600000000002</v>
       </c>
       <c r="E54" s="3">
-        <v>88.618949999999998</v>
+        <v>71.739149999999995</v>
       </c>
       <c r="F54" s="3">
-        <v>143.30294999999998</v>
+        <v>116.00714999999998</v>
       </c>
       <c r="G54" s="3">
-        <v>155.51865000000001</v>
+        <v>125.89605</v>
       </c>
       <c r="H54" s="3">
-        <v>158.98050000000001</v>
+        <v>128.6985</v>
       </c>
       <c r="I54" s="3">
-        <v>160.54605000000001</v>
+        <v>129.96585000000002</v>
       </c>
       <c r="J54" s="3">
-        <v>165.50730000000001</v>
+        <v>133.9821</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
@@ -2141,31 +2183,31 @@
         <v>54</v>
       </c>
       <c r="B55" s="3">
-        <v>44.474850000000011</v>
+        <v>36.003450000000008</v>
       </c>
       <c r="C55" s="3">
-        <v>52.523100000000007</v>
+        <v>42.518700000000003</v>
       </c>
       <c r="D55" s="3">
-        <v>66.127949999999998</v>
+        <v>53.532150000000001</v>
       </c>
       <c r="E55" s="3">
-        <v>88.817400000000006</v>
+        <v>71.899799999999999</v>
       </c>
       <c r="F55" s="3">
-        <v>143.61165</v>
+        <v>116.25704999999999</v>
       </c>
       <c r="G55" s="3">
-        <v>157.61340000000001</v>
+        <v>127.59180000000001</v>
       </c>
       <c r="H55" s="3">
-        <v>159.17894999999999</v>
+        <v>128.85915</v>
       </c>
       <c r="I55" s="3">
-        <v>160.74450000000004</v>
+        <v>130.12650000000002</v>
       </c>
       <c r="J55" s="3">
-        <v>165.68370000000002</v>
+        <v>134.1249</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
@@ -2173,31 +2215,31 @@
         <v>55</v>
       </c>
       <c r="B56" s="3">
-        <v>45.224550000000008</v>
+        <v>36.610350000000004</v>
       </c>
       <c r="C56" s="3">
-        <v>52.721550000000008</v>
+        <v>42.679350000000007</v>
       </c>
       <c r="D56" s="3">
-        <v>66.679199999999994</v>
+        <v>53.978399999999993</v>
       </c>
       <c r="E56" s="3">
-        <v>89.01585</v>
+        <v>72.060450000000003</v>
       </c>
       <c r="F56" s="3">
-        <v>149.60925</v>
+        <v>121.11224999999999</v>
       </c>
       <c r="G56" s="3">
-        <v>157.81184999999999</v>
+        <v>127.75245</v>
       </c>
       <c r="H56" s="3">
-        <v>159.35535000000002</v>
+        <v>129.00194999999999</v>
       </c>
       <c r="I56" s="3">
-        <v>160.92090000000002</v>
+        <v>130.26930000000002</v>
       </c>
       <c r="J56" s="3">
-        <v>165.88215000000002</v>
+        <v>134.28555</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
@@ -2205,31 +2247,31 @@
         <v>56</v>
       </c>
       <c r="B57" s="3">
-        <v>45.555300000000003</v>
+        <v>36.878100000000003</v>
       </c>
       <c r="C57" s="3">
-        <v>52.920000000000009</v>
+        <v>42.84</v>
       </c>
       <c r="D57" s="3">
-        <v>66.89970000000001</v>
+        <v>54.1569</v>
       </c>
       <c r="E57" s="3">
-        <v>89.258399999999995</v>
+        <v>72.256799999999998</v>
       </c>
       <c r="F57" s="3">
-        <v>150.22665000000001</v>
+        <v>121.61205</v>
       </c>
       <c r="G57" s="3">
-        <v>158.0103</v>
+        <v>127.91309999999999</v>
       </c>
       <c r="H57" s="3">
-        <v>159.55380000000002</v>
+        <v>129.1626</v>
       </c>
       <c r="I57" s="3">
-        <v>161.11935</v>
+        <v>130.42994999999999</v>
       </c>
       <c r="J57" s="3">
-        <v>166.05855000000003</v>
+        <v>134.42834999999999</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
@@ -2237,31 +2279,31 @@
         <v>57</v>
       </c>
       <c r="B58" s="3">
-        <v>45.753750000000004</v>
+        <v>37.03875</v>
       </c>
       <c r="C58" s="3">
-        <v>55.036800000000007</v>
+        <v>44.553600000000003</v>
       </c>
       <c r="D58" s="3">
-        <v>68.840100000000007</v>
+        <v>55.727699999999999</v>
       </c>
       <c r="E58" s="3">
-        <v>94.109400000000008</v>
+        <v>76.183800000000005</v>
       </c>
       <c r="F58" s="3">
-        <v>154.98945000000001</v>
+        <v>125.46765000000001</v>
       </c>
       <c r="G58" s="3">
-        <v>161.1414</v>
+        <v>130.4478</v>
       </c>
       <c r="H58" s="3">
-        <v>162.70695000000003</v>
+        <v>131.71515000000002</v>
       </c>
       <c r="I58" s="3">
-        <v>164.31659999999999</v>
+        <v>133.01819999999998</v>
       </c>
       <c r="J58" s="3">
-        <v>168.94710000000003</v>
+        <v>136.76670000000001</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
@@ -2269,31 +2311,31 @@
         <v>58</v>
       </c>
       <c r="B59" s="3">
-        <v>45.952200000000005</v>
+        <v>37.199400000000004</v>
       </c>
       <c r="C59" s="3">
-        <v>55.367550000000001</v>
+        <v>44.821350000000002</v>
       </c>
       <c r="D59" s="3">
-        <v>69.016500000000008</v>
+        <v>55.8705</v>
       </c>
       <c r="E59" s="3">
-        <v>94.572450000000003</v>
+        <v>76.55865</v>
       </c>
       <c r="F59" s="3">
-        <v>157.90004999999999</v>
+        <v>127.82384999999999</v>
       </c>
       <c r="G59" s="3">
-        <v>161.45010000000002</v>
+        <v>130.6977</v>
       </c>
       <c r="H59" s="3">
-        <v>163.0377</v>
+        <v>131.9829</v>
       </c>
       <c r="I59" s="3">
-        <v>164.62530000000001</v>
+        <v>133.2681</v>
       </c>
       <c r="J59" s="3">
-        <v>169.25580000000002</v>
+        <v>137.01660000000001</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
@@ -2301,31 +2343,31 @@
         <v>59</v>
       </c>
       <c r="B60" s="3">
-        <v>46.150650000000006</v>
+        <v>37.360050000000001</v>
       </c>
       <c r="C60" s="3">
-        <v>55.566000000000003</v>
+        <v>44.981999999999999</v>
       </c>
       <c r="D60" s="3">
-        <v>71.287649999999999</v>
+        <v>57.709049999999998</v>
       </c>
       <c r="E60" s="3">
-        <v>94.792950000000019</v>
+        <v>76.737150000000014</v>
       </c>
       <c r="F60" s="3">
-        <v>160.76655</v>
+        <v>130.14434999999997</v>
       </c>
       <c r="G60" s="3">
-        <v>164.97809999999998</v>
+        <v>133.55369999999999</v>
       </c>
       <c r="H60" s="3">
-        <v>166.60980000000004</v>
+        <v>134.87460000000002</v>
       </c>
       <c r="I60" s="3">
-        <v>168.2415</v>
+        <v>136.19549999999998</v>
       </c>
       <c r="J60" s="3">
-        <v>169.89525</v>
+        <v>137.53425000000001</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
@@ -2333,31 +2375,31 @@
         <v>60</v>
       </c>
       <c r="B61" s="3">
-        <v>46.349100000000007</v>
+        <v>37.520700000000005</v>
       </c>
       <c r="C61" s="3">
-        <v>55.764450000000004</v>
+        <v>45.142650000000003</v>
       </c>
       <c r="D61" s="3">
-        <v>71.684550000000002</v>
+        <v>58.030349999999999</v>
       </c>
       <c r="E61" s="3">
-        <v>97.328700000000012</v>
+        <v>78.789900000000003</v>
       </c>
       <c r="F61" s="3">
-        <v>161.05320000000003</v>
+        <v>130.37640000000002</v>
       </c>
       <c r="G61" s="3">
-        <v>168.57225000000003</v>
+        <v>136.46325000000002</v>
       </c>
       <c r="H61" s="3">
-        <v>170.226</v>
+        <v>137.80199999999999</v>
       </c>
       <c r="I61" s="3">
-        <v>171.90179999999998</v>
+        <v>139.15859999999998</v>
       </c>
       <c r="J61" s="3">
-        <v>173.57760000000002</v>
+        <v>140.51519999999999</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
@@ -2365,31 +2407,31 @@
         <v>61</v>
       </c>
       <c r="B62" s="3">
-        <v>46.525500000000001</v>
+        <v>37.663499999999999</v>
       </c>
       <c r="C62" s="3">
-        <v>55.962900000000005</v>
+        <v>45.3033</v>
       </c>
       <c r="D62" s="3">
-        <v>71.860950000000017</v>
+        <v>58.173150000000007</v>
       </c>
       <c r="E62" s="3">
-        <v>97.593299999999999</v>
+        <v>79.004099999999994</v>
       </c>
       <c r="F62" s="3">
-        <v>163.30230000000003</v>
+        <v>132.19710000000001</v>
       </c>
       <c r="G62" s="3">
-        <v>169.6968</v>
+        <v>137.37359999999998</v>
       </c>
       <c r="H62" s="3">
-        <v>171.35055</v>
+        <v>138.71234999999999</v>
       </c>
       <c r="I62" s="3">
-        <v>173.04840000000004</v>
+        <v>140.08680000000001</v>
       </c>
       <c r="J62" s="3">
-        <v>174.98880000000003</v>
+        <v>141.6576</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
@@ -2397,31 +2439,31 @@
         <v>62</v>
       </c>
       <c r="B63" s="3">
-        <v>46.746000000000002</v>
+        <v>37.841999999999999</v>
       </c>
       <c r="C63" s="3">
-        <v>56.161350000000006</v>
+        <v>45.463949999999997</v>
       </c>
       <c r="D63" s="3">
-        <v>72.059399999999997</v>
+        <v>58.333799999999997</v>
       </c>
       <c r="E63" s="3">
-        <v>97.769700000000014</v>
+        <v>79.146900000000002</v>
       </c>
       <c r="F63" s="3">
-        <v>163.63305</v>
+        <v>132.46484999999998</v>
       </c>
       <c r="G63" s="3">
-        <v>170.07165000000001</v>
+        <v>137.67704999999998</v>
       </c>
       <c r="H63" s="3">
-        <v>171.72540000000001</v>
+        <v>139.01579999999998</v>
       </c>
       <c r="I63" s="3">
-        <v>173.42325000000002</v>
+        <v>140.39025000000001</v>
       </c>
       <c r="J63" s="3">
-        <v>175.29750000000001</v>
+        <v>141.9075</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
@@ -2429,31 +2471,31 @@
         <v>63</v>
       </c>
       <c r="B64" s="3">
-        <v>46.944450000000003</v>
+        <v>38.002650000000003</v>
       </c>
       <c r="C64" s="3">
-        <v>56.337750000000007</v>
+        <v>45.606749999999998</v>
       </c>
       <c r="D64" s="3">
-        <v>72.257850000000005</v>
+        <v>58.494450000000008</v>
       </c>
       <c r="E64" s="3">
-        <v>99.754200000000012</v>
+        <v>80.753399999999999</v>
       </c>
       <c r="F64" s="3">
-        <v>170.57880000000003</v>
+        <v>138.08760000000001</v>
       </c>
       <c r="G64" s="3">
-        <v>176.15745000000001</v>
+        <v>142.60364999999999</v>
       </c>
       <c r="H64" s="3">
-        <v>177.89940000000004</v>
+        <v>144.01380000000003</v>
       </c>
       <c r="I64" s="3">
-        <v>179.64135000000002</v>
+        <v>145.42395000000002</v>
       </c>
       <c r="J64" s="3">
-        <v>181.42740000000001</v>
+        <v>146.8698</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
@@ -2461,31 +2503,31 @@
         <v>64</v>
       </c>
       <c r="B65" s="3">
-        <v>49.656600000000005</v>
+        <v>40.1982</v>
       </c>
       <c r="C65" s="3">
-        <v>57.396150000000006</v>
+        <v>46.463550000000005</v>
       </c>
       <c r="D65" s="3">
-        <v>72.456299999999999</v>
+        <v>58.655099999999997</v>
       </c>
       <c r="E65" s="3">
-        <v>99.930600000000013</v>
+        <v>80.896200000000007</v>
       </c>
       <c r="F65" s="3">
-        <v>173.0043</v>
+        <v>140.05109999999999</v>
       </c>
       <c r="G65" s="3">
-        <v>176.77485000000001</v>
+        <v>143.10345000000001</v>
       </c>
       <c r="H65" s="3">
-        <v>178.51679999999999</v>
+        <v>144.5136</v>
       </c>
       <c r="I65" s="3">
-        <v>180.25875000000002</v>
+        <v>145.92375000000001</v>
       </c>
       <c r="J65" s="3">
-        <v>182.04480000000001</v>
+        <v>147.36959999999999</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
@@ -2493,31 +2535,31 @@
         <v>65</v>
       </c>
       <c r="B66" s="3">
-        <v>51.39855</v>
+        <v>41.608350000000002</v>
       </c>
       <c r="C66" s="3">
-        <v>58.807350000000007</v>
+        <v>47.60595</v>
       </c>
       <c r="D66" s="3">
-        <v>72.654750000000007</v>
+        <v>58.815750000000001</v>
       </c>
       <c r="E66" s="3">
-        <v>102.48840000000001</v>
+        <v>82.966800000000006</v>
       </c>
       <c r="F66" s="3">
-        <v>174.59190000000004</v>
+        <v>141.33630000000002</v>
       </c>
       <c r="G66" s="3">
-        <v>176.97330000000002</v>
+        <v>143.26410000000001</v>
       </c>
       <c r="H66" s="3">
-        <v>178.69320000000005</v>
+        <v>144.65640000000002</v>
       </c>
       <c r="I66" s="3">
-        <v>180.4572</v>
+        <v>146.08439999999999</v>
       </c>
       <c r="J66" s="3">
-        <v>182.24325000000005</v>
+        <v>147.53025000000002</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
@@ -2525,31 +2567,31 @@
         <v>66</v>
       </c>
       <c r="B67" s="3">
-        <v>51.574950000000001</v>
+        <v>41.751149999999996</v>
       </c>
       <c r="C67" s="3">
-        <v>59.005800000000008</v>
+        <v>47.766600000000004</v>
       </c>
       <c r="D67" s="3">
-        <v>73.404450000000011</v>
+        <v>59.422650000000004</v>
       </c>
       <c r="E67" s="3">
-        <v>102.75300000000001</v>
+        <v>83.181000000000012</v>
       </c>
       <c r="F67" s="3">
-        <v>174.79034999999999</v>
+        <v>141.49694999999997</v>
       </c>
       <c r="G67" s="3">
-        <v>177.25995000000003</v>
+        <v>143.49615</v>
       </c>
       <c r="H67" s="3">
-        <v>178.97985000000003</v>
+        <v>144.88845000000001</v>
       </c>
       <c r="I67" s="3">
-        <v>180.76590000000002</v>
+        <v>146.33430000000001</v>
       </c>
       <c r="J67" s="3">
-        <v>182.55195000000001</v>
+        <v>147.78014999999999</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
@@ -2557,31 +2599,31 @@
         <v>67</v>
       </c>
       <c r="B68" s="3">
-        <v>51.773400000000002</v>
+        <v>41.911799999999999</v>
       </c>
       <c r="C68" s="3">
-        <v>60.108300000000007</v>
+        <v>48.659100000000002</v>
       </c>
       <c r="D68" s="3">
-        <v>73.624949999999998</v>
+        <v>59.601149999999997</v>
       </c>
       <c r="E68" s="3">
-        <v>102.95144999999999</v>
+        <v>83.341649999999987</v>
       </c>
       <c r="F68" s="3">
-        <v>174.98880000000003</v>
+        <v>141.6576</v>
       </c>
       <c r="G68" s="3">
-        <v>177.43635</v>
+        <v>143.63894999999999</v>
       </c>
       <c r="H68" s="3">
-        <v>179.20035000000001</v>
+        <v>145.06694999999999</v>
       </c>
       <c r="I68" s="3">
-        <v>180.96435</v>
+        <v>146.49494999999999</v>
       </c>
       <c r="J68" s="3">
-        <v>182.72835000000003</v>
+        <v>147.92295000000001</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
@@ -2589,31 +2631,31 @@
         <v>68</v>
       </c>
       <c r="B69" s="3">
-        <v>51.971850000000003</v>
+        <v>42.072449999999996</v>
       </c>
       <c r="C69" s="3">
-        <v>60.59340000000001</v>
+        <v>49.0518</v>
       </c>
       <c r="D69" s="3">
-        <v>75.543300000000002</v>
+        <v>61.1541</v>
       </c>
       <c r="E69" s="3">
-        <v>103.12785000000002</v>
+        <v>83.48445000000001</v>
       </c>
       <c r="F69" s="3">
-        <v>175.93695000000002</v>
+        <v>142.42515000000003</v>
       </c>
       <c r="G69" s="3">
-        <v>177.65685000000002</v>
+        <v>143.81745000000001</v>
       </c>
       <c r="H69" s="3">
-        <v>179.39879999999999</v>
+        <v>145.2276</v>
       </c>
       <c r="I69" s="3">
-        <v>181.14075000000003</v>
+        <v>146.63775000000001</v>
       </c>
       <c r="J69" s="3">
-        <v>182.92680000000001</v>
+        <v>148.08359999999999</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
@@ -2621,31 +2663,31 @@
         <v>69</v>
       </c>
       <c r="B70" s="3">
-        <v>52.170300000000005</v>
+        <v>42.2331</v>
       </c>
       <c r="C70" s="3">
-        <v>61.850250000000003</v>
+        <v>50.069249999999997</v>
       </c>
       <c r="D70" s="3">
-        <v>75.763800000000003</v>
+        <v>61.332600000000006</v>
       </c>
       <c r="E70" s="3">
-        <v>103.5909</v>
+        <v>83.859300000000005</v>
       </c>
       <c r="F70" s="3">
-        <v>176.53230000000002</v>
+        <v>142.90710000000001</v>
       </c>
       <c r="G70" s="3">
-        <v>178.25220000000002</v>
+        <v>144.29939999999999</v>
       </c>
       <c r="H70" s="3">
-        <v>179.97210000000001</v>
+        <v>145.6917</v>
       </c>
       <c r="I70" s="3">
-        <v>181.75815000000003</v>
+        <v>147.13755</v>
       </c>
       <c r="J70" s="3">
-        <v>183.54420000000002</v>
+        <v>148.58340000000001</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
@@ -2653,31 +2695,31 @@
         <v>70</v>
       </c>
       <c r="B71" s="3">
-        <v>52.368750000000006</v>
+        <v>42.393749999999997</v>
       </c>
       <c r="C71" s="3">
-        <v>67.076100000000011</v>
+        <v>54.299700000000001</v>
       </c>
       <c r="D71" s="3">
-        <v>78.277500000000003</v>
+        <v>63.367499999999993</v>
       </c>
       <c r="E71" s="3">
-        <v>112.05810000000001</v>
+        <v>90.713700000000003</v>
       </c>
       <c r="F71" s="3">
-        <v>180.52335000000002</v>
+        <v>146.13795000000002</v>
       </c>
       <c r="G71" s="3">
-        <v>189.56385</v>
+        <v>153.45644999999999</v>
       </c>
       <c r="H71" s="3">
-        <v>191.41605000000001</v>
+        <v>154.95585</v>
       </c>
       <c r="I71" s="3">
-        <v>193.31235000000001</v>
+        <v>156.49095</v>
       </c>
       <c r="J71" s="3">
-        <v>195.20865000000001</v>
+        <v>158.02605</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
@@ -2685,31 +2727,31 @@
         <v>71</v>
       </c>
       <c r="B72" s="3">
-        <v>55.323450000000001</v>
+        <v>44.785649999999997</v>
       </c>
       <c r="C72" s="3">
-        <v>67.936049999999994</v>
+        <v>54.99584999999999</v>
       </c>
       <c r="D72" s="3">
-        <v>78.520050000000012</v>
+        <v>63.563850000000002</v>
       </c>
       <c r="E72" s="3">
-        <v>112.89600000000002</v>
+        <v>91.39200000000001</v>
       </c>
       <c r="F72" s="3">
-        <v>181.09664999999998</v>
+        <v>146.60204999999999</v>
       </c>
       <c r="G72" s="3">
-        <v>191.39400000000001</v>
+        <v>154.93799999999999</v>
       </c>
       <c r="H72" s="3">
-        <v>193.29030000000003</v>
+        <v>156.47310000000002</v>
       </c>
       <c r="I72" s="3">
-        <v>195.1866</v>
+        <v>158.00819999999999</v>
       </c>
       <c r="J72" s="3">
-        <v>197.12700000000001</v>
+        <v>159.57900000000001</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
@@ -2717,31 +2759,31 @@
         <v>72</v>
       </c>
       <c r="B73" s="3">
-        <v>55.63215000000001</v>
+        <v>45.035550000000001</v>
       </c>
       <c r="C73" s="3">
-        <v>68.134500000000003</v>
+        <v>55.156500000000001</v>
       </c>
       <c r="D73" s="3">
-        <v>78.71850000000002</v>
+        <v>63.724500000000006</v>
       </c>
       <c r="E73" s="3">
-        <v>113.1165</v>
+        <v>91.570499999999996</v>
       </c>
       <c r="F73" s="3">
-        <v>189.10080000000005</v>
+        <v>153.08160000000004</v>
       </c>
       <c r="G73" s="3">
-        <v>191.59245000000004</v>
+        <v>155.09865000000002</v>
       </c>
       <c r="H73" s="3">
-        <v>193.4667</v>
+        <v>156.61589999999998</v>
       </c>
       <c r="I73" s="3">
-        <v>195.38505000000004</v>
+        <v>158.16885000000002</v>
       </c>
       <c r="J73" s="3">
-        <v>197.30340000000001</v>
+        <v>159.7218</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
@@ -2749,31 +2791,31 @@
         <v>73</v>
       </c>
       <c r="B74" s="3">
-        <v>55.830600000000004</v>
+        <v>45.196200000000005</v>
       </c>
       <c r="C74" s="3">
-        <v>68.332949999999997</v>
+        <v>55.317149999999991</v>
       </c>
       <c r="D74" s="3">
-        <v>79.093350000000001</v>
+        <v>64.02794999999999</v>
       </c>
       <c r="E74" s="3">
-        <v>114.90255000000001</v>
+        <v>93.016349999999989</v>
       </c>
       <c r="F74" s="3">
-        <v>189.91665</v>
+        <v>153.74204999999998</v>
       </c>
       <c r="G74" s="3">
-        <v>191.79090000000002</v>
+        <v>155.2593</v>
       </c>
       <c r="H74" s="3">
-        <v>193.68720000000005</v>
+        <v>156.79440000000002</v>
       </c>
       <c r="I74" s="3">
-        <v>195.58350000000002</v>
+        <v>158.3295</v>
       </c>
       <c r="J74" s="3">
-        <v>197.50184999999999</v>
+        <v>159.88244999999998</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
@@ -2781,31 +2823,31 @@
         <v>74</v>
       </c>
       <c r="B75" s="3">
-        <v>56.006999999999998</v>
+        <v>45.338999999999999</v>
       </c>
       <c r="C75" s="3">
-        <v>68.531400000000005</v>
+        <v>55.477800000000002</v>
       </c>
       <c r="D75" s="3">
-        <v>79.291800000000009</v>
+        <v>64.188600000000008</v>
       </c>
       <c r="E75" s="3">
-        <v>115.10100000000001</v>
+        <v>93.177000000000007</v>
       </c>
       <c r="F75" s="3">
-        <v>190.18125000000001</v>
+        <v>153.95624999999998</v>
       </c>
       <c r="G75" s="3">
-        <v>192.05549999999999</v>
+        <v>155.4735</v>
       </c>
       <c r="H75" s="3">
-        <v>193.95180000000002</v>
+        <v>157.0086</v>
       </c>
       <c r="I75" s="3">
-        <v>195.84809999999999</v>
+        <v>158.5437</v>
       </c>
       <c r="J75" s="3">
-        <v>197.7885</v>
+        <v>160.11449999999999</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
@@ -2813,31 +2855,31 @@
         <v>75</v>
       </c>
       <c r="B76" s="3">
-        <v>56.955150000000003</v>
+        <v>46.106549999999999</v>
       </c>
       <c r="C76" s="3">
-        <v>68.928300000000007</v>
+        <v>55.799099999999996</v>
       </c>
       <c r="D76" s="3">
-        <v>79.688700000000011</v>
+        <v>64.509900000000002</v>
       </c>
       <c r="E76" s="3">
-        <v>117.35010000000001</v>
+        <v>94.997699999999995</v>
       </c>
       <c r="F76" s="3">
-        <v>194.06205000000003</v>
+        <v>157.09785000000002</v>
       </c>
       <c r="G76" s="3">
-        <v>197.28135</v>
+        <v>159.70394999999999</v>
       </c>
       <c r="H76" s="3">
-        <v>199.19970000000004</v>
+        <v>161.25690000000003</v>
       </c>
       <c r="I76" s="3">
-        <v>201.1842</v>
+        <v>162.86339999999998</v>
       </c>
       <c r="J76" s="3">
-        <v>203.14664999999999</v>
+        <v>164.45204999999999</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
@@ -2845,31 +2887,31 @@
         <v>76</v>
       </c>
       <c r="B77" s="3">
-        <v>57.330000000000005</v>
+        <v>46.41</v>
       </c>
       <c r="C77" s="3">
-        <v>69.303150000000002</v>
+        <v>56.102550000000001</v>
       </c>
       <c r="D77" s="3">
-        <v>80.063550000000006</v>
+        <v>64.81335</v>
       </c>
       <c r="E77" s="3">
-        <v>118.16595000000002</v>
+        <v>95.658150000000006</v>
       </c>
       <c r="F77" s="3">
-        <v>198.03104999999999</v>
+        <v>160.31084999999999</v>
       </c>
       <c r="G77" s="3">
-        <v>200.30220000000003</v>
+        <v>162.14940000000001</v>
       </c>
       <c r="H77" s="3">
-        <v>202.26465000000002</v>
+        <v>163.73805000000002</v>
       </c>
       <c r="I77" s="3">
-        <v>204.24915000000001</v>
+        <v>165.34455</v>
       </c>
       <c r="J77" s="3">
-        <v>206.27775000000003</v>
+        <v>166.98675</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
@@ -2877,31 +2919,31 @@
         <v>77</v>
       </c>
       <c r="B78" s="3">
-        <v>57.748950000000008</v>
+        <v>46.74915</v>
       </c>
       <c r="C78" s="3">
-        <v>69.722099999999998</v>
+        <v>56.441699999999997</v>
       </c>
       <c r="D78" s="3">
-        <v>81.629100000000008</v>
+        <v>66.080700000000007</v>
       </c>
       <c r="E78" s="3">
-        <v>118.56285000000003</v>
+        <v>95.979450000000014</v>
       </c>
       <c r="F78" s="3">
-        <v>198.42794999999998</v>
+        <v>160.63215</v>
       </c>
       <c r="G78" s="3">
-        <v>202.72770000000003</v>
+        <v>164.1129</v>
       </c>
       <c r="H78" s="3">
-        <v>208.2843</v>
+        <v>168.61109999999999</v>
       </c>
       <c r="I78" s="3">
-        <v>210.31290000000001</v>
+        <v>170.2533</v>
       </c>
       <c r="J78" s="3">
-        <v>212.5179</v>
+        <v>172.03829999999999</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
@@ -2909,31 +2951,31 @@
         <v>78</v>
       </c>
       <c r="B79" s="3">
-        <v>58.123800000000003</v>
+        <v>47.052599999999998</v>
       </c>
       <c r="C79" s="3">
-        <v>70.096950000000007</v>
+        <v>56.745149999999995</v>
       </c>
       <c r="D79" s="3">
-        <v>83.128500000000017</v>
+        <v>67.294500000000014</v>
       </c>
       <c r="E79" s="3">
-        <v>124.07535000000003</v>
+        <v>100.44195000000001</v>
       </c>
       <c r="F79" s="3">
-        <v>198.93510000000003</v>
+        <v>161.04270000000002</v>
       </c>
       <c r="G79" s="3">
-        <v>203.96250000000001</v>
+        <v>165.11249999999998</v>
       </c>
       <c r="H79" s="3">
-        <v>222.21990000000002</v>
+        <v>179.89230000000001</v>
       </c>
       <c r="I79" s="3">
-        <v>224.40285000000003</v>
+        <v>181.65944999999999</v>
       </c>
       <c r="J79" s="3">
-        <v>227.37960000000004</v>
+        <v>184.06920000000002</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
@@ -2941,31 +2983,31 @@
         <v>79</v>
       </c>
       <c r="B80" s="3">
-        <v>58.520700000000005</v>
+        <v>47.373899999999999</v>
       </c>
       <c r="C80" s="3">
-        <v>70.493850000000009</v>
+        <v>57.066449999999996</v>
       </c>
       <c r="D80" s="3">
-        <v>83.525400000000005</v>
+        <v>67.615799999999993</v>
       </c>
       <c r="E80" s="3">
-        <v>124.62660000000001</v>
+        <v>100.8882</v>
       </c>
       <c r="F80" s="3">
-        <v>209.51910000000001</v>
+        <v>169.61070000000001</v>
       </c>
       <c r="G80" s="3">
-        <v>221.91120000000004</v>
+        <v>179.64240000000001</v>
       </c>
       <c r="H80" s="3">
-        <v>224.42490000000001</v>
+        <v>181.6773</v>
       </c>
       <c r="I80" s="3">
-        <v>226.65195000000003</v>
+        <v>183.48015000000001</v>
       </c>
       <c r="J80" s="3">
-        <v>228.87899999999999</v>
+        <v>185.28299999999999</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
@@ -2973,31 +3015,31 @@
         <v>80</v>
       </c>
       <c r="B81" s="3">
-        <v>58.895550000000007</v>
+        <v>47.677349999999997</v>
       </c>
       <c r="C81" s="3">
-        <v>70.868700000000004</v>
+        <v>57.369900000000001</v>
       </c>
       <c r="D81" s="3">
-        <v>83.922300000000007</v>
+        <v>67.937100000000001</v>
       </c>
       <c r="E81" s="3">
-        <v>125.02350000000001</v>
+        <v>101.20950000000001</v>
       </c>
       <c r="F81" s="3">
-        <v>211.37130000000002</v>
+        <v>171.11010000000002</v>
       </c>
       <c r="G81" s="3">
-        <v>223.7193</v>
+        <v>181.1061</v>
       </c>
       <c r="H81" s="3">
-        <v>225.94635000000002</v>
+        <v>182.90895</v>
       </c>
       <c r="I81" s="3">
-        <v>228.17340000000004</v>
+        <v>184.71180000000001</v>
       </c>
       <c r="J81" s="3">
-        <v>230.42250000000001</v>
+        <v>186.5325</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
@@ -3005,31 +3047,31 @@
         <v>81</v>
       </c>
       <c r="B82" s="3">
-        <v>60.813900000000004</v>
+        <v>49.2303</v>
       </c>
       <c r="C82" s="3">
-        <v>71.287649999999999</v>
+        <v>57.709049999999998</v>
       </c>
       <c r="D82" s="3">
-        <v>84.319200000000009</v>
+        <v>68.258399999999995</v>
       </c>
       <c r="E82" s="3">
-        <v>125.42040000000001</v>
+        <v>101.5308</v>
       </c>
       <c r="F82" s="3">
-        <v>211.76820000000004</v>
+        <v>171.43140000000002</v>
       </c>
       <c r="G82" s="3">
-        <v>224.11620000000002</v>
+        <v>181.42740000000001</v>
       </c>
       <c r="H82" s="3">
-        <v>226.32120000000003</v>
+        <v>183.2124</v>
       </c>
       <c r="I82" s="3">
-        <v>228.5703</v>
+        <v>185.03309999999999</v>
       </c>
       <c r="J82" s="3">
-        <v>230.81940000000003</v>
+        <v>186.85380000000004</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
@@ -3037,31 +3079,31 @@
         <v>82</v>
       </c>
       <c r="B83" s="3">
-        <v>61.3872</v>
+        <v>49.694399999999995</v>
       </c>
       <c r="C83" s="3">
-        <v>72.279900000000012</v>
+        <v>58.512300000000003</v>
       </c>
       <c r="D83" s="3">
-        <v>84.694050000000004</v>
+        <v>68.561849999999993</v>
       </c>
       <c r="E83" s="3">
-        <v>125.79525</v>
+        <v>101.83425</v>
       </c>
       <c r="F83" s="3">
-        <v>212.14305000000002</v>
+        <v>171.73484999999999</v>
       </c>
       <c r="G83" s="3">
-        <v>224.49105000000003</v>
+        <v>181.73085</v>
       </c>
       <c r="H83" s="3">
-        <v>226.71809999999999</v>
+        <v>183.53369999999998</v>
       </c>
       <c r="I83" s="3">
-        <v>228.94515000000001</v>
+        <v>185.33654999999999</v>
       </c>
       <c r="J83" s="3">
-        <v>231.23835000000005</v>
+        <v>187.19295000000002</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
@@ -3069,31 +3111,31 @@
         <v>83</v>
       </c>
       <c r="B84" s="3">
-        <v>62.181000000000004</v>
+        <v>50.336999999999996</v>
       </c>
       <c r="C84" s="3">
-        <v>72.654750000000007</v>
+        <v>58.815750000000001</v>
       </c>
       <c r="D84" s="3">
-        <v>85.090950000000021</v>
+        <v>68.883150000000015</v>
       </c>
       <c r="E84" s="3">
-        <v>126.19215</v>
+        <v>102.15554999999999</v>
       </c>
       <c r="F84" s="3">
-        <v>215.45055000000002</v>
+        <v>174.41235</v>
       </c>
       <c r="G84" s="3">
-        <v>224.91000000000003</v>
+        <v>182.07000000000002</v>
       </c>
       <c r="H84" s="3">
-        <v>227.11500000000001</v>
+        <v>183.85500000000002</v>
       </c>
       <c r="I84" s="3">
-        <v>229.36410000000001</v>
+        <v>185.67570000000001</v>
       </c>
       <c r="J84" s="3">
-        <v>231.61320000000003</v>
+        <v>187.49640000000002</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
@@ -3101,31 +3143,31 @@
         <v>84</v>
       </c>
       <c r="B85" s="3">
-        <v>62.555850000000007</v>
+        <v>50.640450000000001</v>
       </c>
       <c r="C85" s="3">
-        <v>73.051650000000009</v>
+        <v>59.137050000000002</v>
       </c>
       <c r="D85" s="3">
-        <v>86.303700000000006</v>
+        <v>69.864900000000006</v>
       </c>
       <c r="E85" s="3">
-        <v>126.61110000000001</v>
+        <v>102.49470000000001</v>
       </c>
       <c r="F85" s="3">
-        <v>217.7217</v>
+        <v>176.25089999999997</v>
       </c>
       <c r="G85" s="3">
-        <v>228.63645</v>
+        <v>185.08664999999999</v>
       </c>
       <c r="H85" s="3">
-        <v>230.9076</v>
+        <v>186.92519999999999</v>
       </c>
       <c r="I85" s="3">
-        <v>233.17875000000004</v>
+        <v>188.76375000000002</v>
       </c>
       <c r="J85" s="3">
-        <v>235.47195000000002</v>
+        <v>190.62015</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
@@ -3133,31 +3175,31 @@
         <v>85</v>
       </c>
       <c r="B86" s="3">
-        <v>65.290050000000008</v>
+        <v>52.853850000000001</v>
       </c>
       <c r="C86" s="3">
-        <v>74.639250000000018</v>
+        <v>60.422250000000005</v>
       </c>
       <c r="D86" s="3">
-        <v>90.559350000000009</v>
+        <v>73.309950000000001</v>
       </c>
       <c r="E86" s="3">
-        <v>131.61645000000001</v>
+        <v>106.54665</v>
       </c>
       <c r="F86" s="3">
-        <v>218.09655000000004</v>
+        <v>176.55435</v>
       </c>
       <c r="G86" s="3">
-        <v>229.14360000000002</v>
+        <v>185.49719999999999</v>
       </c>
       <c r="H86" s="3">
-        <v>231.41475000000003</v>
+        <v>187.33574999999999</v>
       </c>
       <c r="I86" s="3">
-        <v>233.68590000000003</v>
+        <v>189.17430000000002</v>
       </c>
       <c r="J86" s="3">
-        <v>236.00115000000002</v>
+        <v>191.04855000000001</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
@@ -3165,31 +3207,31 @@
         <v>86</v>
       </c>
       <c r="B87" s="3">
-        <v>65.686949999999996</v>
+        <v>53.175149999999995</v>
       </c>
       <c r="C87" s="3">
-        <v>76.822200000000024</v>
+        <v>62.189400000000013</v>
       </c>
       <c r="D87" s="3">
-        <v>90.978300000000004</v>
+        <v>73.649100000000004</v>
       </c>
       <c r="E87" s="3">
-        <v>132.12360000000001</v>
+        <v>106.9572</v>
       </c>
       <c r="F87" s="3">
-        <v>218.49345000000002</v>
+        <v>176.87565000000001</v>
       </c>
       <c r="G87" s="3">
-        <v>230.48865000000001</v>
+        <v>186.58605</v>
       </c>
       <c r="H87" s="3">
-        <v>232.78185000000002</v>
+        <v>188.44245000000001</v>
       </c>
       <c r="I87" s="3">
-        <v>235.07505</v>
+        <v>190.29884999999999</v>
       </c>
       <c r="J87" s="3">
-        <v>237.39030000000002</v>
+        <v>192.17310000000001</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
@@ -3197,31 +3239,31 @@
         <v>87</v>
       </c>
       <c r="B88" s="3">
-        <v>66.083849999999998</v>
+        <v>53.496449999999996</v>
       </c>
       <c r="C88" s="3">
-        <v>77.219100000000026</v>
+        <v>62.510700000000014</v>
       </c>
       <c r="D88" s="3">
-        <v>91.353149999999999</v>
+        <v>73.952550000000002</v>
       </c>
       <c r="E88" s="3">
-        <v>132.52050000000003</v>
+        <v>107.27850000000001</v>
       </c>
       <c r="F88" s="3">
-        <v>218.91240000000002</v>
+        <v>177.2148</v>
       </c>
       <c r="G88" s="3">
-        <v>230.9076</v>
+        <v>186.92519999999999</v>
       </c>
       <c r="H88" s="3">
-        <v>233.17875000000004</v>
+        <v>188.76375000000002</v>
       </c>
       <c r="I88" s="3">
-        <v>235.47195000000002</v>
+        <v>190.62015</v>
       </c>
       <c r="J88" s="3">
-        <v>237.78720000000004</v>
+        <v>192.49440000000001</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
@@ -3229,31 +3271,31 @@
         <v>88</v>
       </c>
       <c r="B89" s="3">
-        <v>66.458700000000007</v>
+        <v>53.799900000000001</v>
       </c>
       <c r="C89" s="3">
-        <v>77.616000000000014</v>
+        <v>62.832000000000015</v>
       </c>
       <c r="D89" s="3">
-        <v>91.750050000000002</v>
+        <v>74.273849999999996</v>
       </c>
       <c r="E89" s="3">
-        <v>132.91740000000001</v>
+        <v>107.5998</v>
       </c>
       <c r="F89" s="3">
-        <v>219.28725000000003</v>
+        <v>177.51825000000002</v>
       </c>
       <c r="G89" s="3">
-        <v>232.58340000000001</v>
+        <v>188.2818</v>
       </c>
       <c r="H89" s="3">
-        <v>234.89865000000003</v>
+        <v>190.15605000000002</v>
       </c>
       <c r="I89" s="3">
-        <v>237.23595000000003</v>
+        <v>192.04815000000002</v>
       </c>
       <c r="J89" s="3">
-        <v>239.59530000000001</v>
+        <v>193.9581</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
@@ -3261,31 +3303,31 @@
         <v>89</v>
       </c>
       <c r="B90" s="3">
-        <v>66.877650000000003</v>
+        <v>54.139049999999997</v>
       </c>
       <c r="C90" s="3">
-        <v>78.012900000000002</v>
+        <v>63.153300000000002</v>
       </c>
       <c r="D90" s="3">
-        <v>92.146950000000004</v>
+        <v>74.595150000000004</v>
       </c>
       <c r="E90" s="3">
-        <v>133.3143</v>
+        <v>107.92110000000001</v>
       </c>
       <c r="F90" s="3">
-        <v>221.93325000000002</v>
+        <v>179.66024999999999</v>
       </c>
       <c r="G90" s="3">
-        <v>232.9803</v>
+        <v>188.60309999999998</v>
       </c>
       <c r="H90" s="3">
-        <v>235.27350000000004</v>
+        <v>190.45950000000002</v>
       </c>
       <c r="I90" s="3">
-        <v>237.63285000000002</v>
+        <v>192.36945</v>
       </c>
       <c r="J90" s="3">
-        <v>239.99220000000003</v>
+        <v>194.27940000000001</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
@@ -3293,31 +3335,31 @@
         <v>90</v>
       </c>
       <c r="B91" s="3">
-        <v>67.252499999999998</v>
+        <v>54.442499999999995</v>
       </c>
       <c r="C91" s="3">
-        <v>78.387750000000011</v>
+        <v>63.45675</v>
       </c>
       <c r="D91" s="3">
-        <v>92.543850000000006</v>
+        <v>74.916449999999998</v>
       </c>
       <c r="E91" s="3">
-        <v>133.68915000000001</v>
+        <v>108.22455000000001</v>
       </c>
       <c r="F91" s="3">
-        <v>224.20440000000002</v>
+        <v>181.49880000000002</v>
       </c>
       <c r="G91" s="3">
-        <v>233.35515000000001</v>
+        <v>188.90654999999998</v>
       </c>
       <c r="H91" s="3">
-        <v>235.69245000000004</v>
+        <v>190.79865000000001</v>
       </c>
       <c r="I91" s="3">
-        <v>238.00770000000003</v>
+        <v>192.6729</v>
       </c>
       <c r="J91" s="3">
-        <v>240.38910000000001</v>
+        <v>194.60069999999999</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
@@ -3325,31 +3367,31 @@
         <v>91</v>
       </c>
       <c r="B92" s="3">
-        <v>67.6494</v>
+        <v>54.763799999999996</v>
       </c>
       <c r="C92" s="3">
-        <v>78.784649999999999</v>
+        <v>63.77805</v>
       </c>
       <c r="D92" s="3">
-        <v>92.940750000000008</v>
+        <v>75.237750000000005</v>
       </c>
       <c r="E92" s="3">
-        <v>134.08605</v>
+        <v>108.54585</v>
       </c>
       <c r="F92" s="3">
-        <v>224.62335000000004</v>
+        <v>181.83795000000001</v>
       </c>
       <c r="G92" s="3">
-        <v>233.7741</v>
+        <v>189.2457</v>
       </c>
       <c r="H92" s="3">
-        <v>236.06730000000005</v>
+        <v>191.10210000000001</v>
       </c>
       <c r="I92" s="3">
-        <v>238.40460000000004</v>
+        <v>192.99420000000001</v>
       </c>
       <c r="J92" s="3">
-        <v>240.78600000000003</v>
+        <v>194.92200000000003</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
@@ -3357,31 +3399,31 @@
         <v>92</v>
       </c>
       <c r="B93" s="3">
-        <v>68.024250000000009</v>
+        <v>55.067250000000008</v>
       </c>
       <c r="C93" s="3">
-        <v>79.181550000000001</v>
+        <v>64.099350000000001</v>
       </c>
       <c r="D93" s="3">
-        <v>93.315600000000003</v>
+        <v>75.541200000000003</v>
       </c>
       <c r="E93" s="3">
-        <v>134.46090000000001</v>
+        <v>108.84929999999999</v>
       </c>
       <c r="F93" s="3">
-        <v>224.99820000000003</v>
+        <v>182.1414</v>
       </c>
       <c r="G93" s="3">
-        <v>234.14895000000001</v>
+        <v>189.54915</v>
       </c>
       <c r="H93" s="3">
-        <v>236.46420000000001</v>
+        <v>191.42340000000002</v>
       </c>
       <c r="I93" s="3">
-        <v>238.82355000000004</v>
+        <v>193.33335000000002</v>
       </c>
       <c r="J93" s="3">
-        <v>241.16085000000004</v>
+        <v>195.22545000000002</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
@@ -3389,31 +3431,31 @@
         <v>93</v>
       </c>
       <c r="B94" s="3">
-        <v>68.443200000000004</v>
+        <v>55.406399999999998</v>
       </c>
       <c r="C94" s="3">
-        <v>79.578450000000018</v>
+        <v>64.420650000000009</v>
       </c>
       <c r="D94" s="3">
-        <v>93.734549999999999</v>
+        <v>75.880349999999993</v>
       </c>
       <c r="E94" s="3">
-        <v>134.87985000000003</v>
+        <v>109.18845000000002</v>
       </c>
       <c r="F94" s="3">
-        <v>225.39510000000001</v>
+        <v>182.46270000000001</v>
       </c>
       <c r="G94" s="3">
-        <v>234.54585000000003</v>
+        <v>189.87045000000001</v>
       </c>
       <c r="H94" s="3">
-        <v>236.83905000000001</v>
+        <v>191.72685000000001</v>
       </c>
       <c r="I94" s="3">
-        <v>239.19840000000002</v>
+        <v>193.63680000000002</v>
       </c>
       <c r="J94" s="3">
-        <v>241.55775000000003</v>
+        <v>195.54675</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
@@ -3421,31 +3463,31 @@
         <v>94</v>
       </c>
       <c r="B95" s="3">
-        <v>68.818050000000014</v>
+        <v>55.70985000000001</v>
       </c>
       <c r="C95" s="3">
-        <v>79.97535000000002</v>
+        <v>64.741950000000017</v>
       </c>
       <c r="D95" s="3">
-        <v>94.109400000000008</v>
+        <v>76.183800000000005</v>
       </c>
       <c r="E95" s="3">
-        <v>135.27675000000002</v>
+        <v>109.50975</v>
       </c>
       <c r="F95" s="3">
-        <v>225.76995000000002</v>
+        <v>182.76615000000001</v>
       </c>
       <c r="G95" s="3">
-        <v>234.92070000000001</v>
+        <v>190.1739</v>
       </c>
       <c r="H95" s="3">
-        <v>237.25800000000001</v>
+        <v>192.066</v>
       </c>
       <c r="I95" s="3">
-        <v>239.59530000000001</v>
+        <v>193.9581</v>
       </c>
       <c r="J95" s="3">
-        <v>241.95465000000004</v>
+        <v>195.86805000000001</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
@@ -3453,31 +3495,31 @@
         <v>95</v>
       </c>
       <c r="B96" s="3">
-        <v>69.214950000000002</v>
+        <v>56.031149999999997</v>
       </c>
       <c r="C96" s="3">
-        <v>80.350200000000001</v>
+        <v>65.045400000000001</v>
       </c>
       <c r="D96" s="3">
-        <v>94.50630000000001</v>
+        <v>76.505099999999999</v>
       </c>
       <c r="E96" s="3">
-        <v>135.6516</v>
+        <v>109.81320000000001</v>
       </c>
       <c r="F96" s="3">
-        <v>226.47555</v>
+        <v>183.33734999999999</v>
       </c>
       <c r="G96" s="3">
-        <v>236.99340000000004</v>
+        <v>191.85180000000003</v>
       </c>
       <c r="H96" s="3">
-        <v>239.30865000000003</v>
+        <v>193.72605000000001</v>
       </c>
       <c r="I96" s="3">
-        <v>241.69005000000001</v>
+        <v>195.65385000000001</v>
       </c>
       <c r="J96" s="3">
-        <v>244.07145000000003</v>
+        <v>197.58165</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
@@ -3485,31 +3527,31 @@
         <v>96</v>
       </c>
       <c r="B97" s="3">
-        <v>70.648200000000003</v>
+        <v>57.191400000000002</v>
       </c>
       <c r="C97" s="3">
-        <v>80.76915000000001</v>
+        <v>65.384550000000004</v>
       </c>
       <c r="D97" s="3">
-        <v>98.916300000000007</v>
+        <v>80.075100000000006</v>
       </c>
       <c r="E97" s="3">
-        <v>138.01095000000004</v>
+        <v>111.72315000000002</v>
       </c>
       <c r="F97" s="3">
-        <v>235.053</v>
+        <v>190.28099999999998</v>
       </c>
       <c r="G97" s="3">
-        <v>237.36825000000005</v>
+        <v>192.15525000000002</v>
       </c>
       <c r="H97" s="3">
-        <v>239.70555000000002</v>
+        <v>194.04734999999999</v>
       </c>
       <c r="I97" s="3">
-        <v>242.08695000000003</v>
+        <v>195.97515000000001</v>
       </c>
       <c r="J97" s="3">
-        <v>244.44630000000004</v>
+        <v>197.88509999999999</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
@@ -3517,31 +3559,31 @@
         <v>97</v>
       </c>
       <c r="B98" s="3">
-        <v>71.045100000000005</v>
+        <v>57.512700000000002</v>
       </c>
       <c r="C98" s="3">
-        <v>81.144000000000005</v>
+        <v>65.688000000000002</v>
       </c>
       <c r="D98" s="3">
-        <v>99.357300000000009</v>
+        <v>80.432100000000005</v>
       </c>
       <c r="E98" s="3">
-        <v>138.38579999999999</v>
+        <v>112.02659999999999</v>
       </c>
       <c r="F98" s="3">
-        <v>239.92605</v>
+        <v>194.22585000000001</v>
       </c>
       <c r="G98" s="3">
-        <v>242.30745000000002</v>
+        <v>196.15365</v>
       </c>
       <c r="H98" s="3">
-        <v>244.66679999999999</v>
+        <v>198.06359999999998</v>
       </c>
       <c r="I98" s="3">
-        <v>247.09230000000002</v>
+        <v>200.02710000000002</v>
       </c>
       <c r="J98" s="3">
-        <v>249.53985000000003</v>
+        <v>202.00845000000001</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
@@ -3549,31 +3591,31 @@
         <v>98</v>
       </c>
       <c r="B99" s="3">
-        <v>71.419950000000014</v>
+        <v>57.81615</v>
       </c>
       <c r="C99" s="3">
-        <v>81.540900000000008</v>
+        <v>66.009299999999996</v>
       </c>
       <c r="D99" s="3">
-        <v>99.754200000000012</v>
+        <v>80.753399999999999</v>
       </c>
       <c r="E99" s="3">
-        <v>138.78270000000001</v>
+        <v>112.3479</v>
       </c>
       <c r="F99" s="3">
-        <v>241.46955000000005</v>
+        <v>195.47535000000002</v>
       </c>
       <c r="G99" s="3">
-        <v>245.48265000000001</v>
+        <v>198.72405000000001</v>
       </c>
       <c r="H99" s="3">
-        <v>247.90815000000006</v>
+        <v>200.68755000000002</v>
       </c>
       <c r="I99" s="3">
-        <v>250.35570000000004</v>
+        <v>202.66890000000001</v>
       </c>
       <c r="J99" s="3">
-        <v>266.31990000000002</v>
+        <v>215.59229999999999</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
@@ -3581,31 +3623,31 @@
         <v>99</v>
       </c>
       <c r="B100" s="3">
-        <v>71.816850000000002</v>
+        <v>58.137450000000001</v>
       </c>
       <c r="C100" s="3">
-        <v>81.915750000000003</v>
+        <v>66.312749999999994</v>
       </c>
       <c r="D100" s="3">
-        <v>102.02535000000002</v>
+        <v>82.591950000000011</v>
       </c>
       <c r="E100" s="3">
-        <v>146.65455000000003</v>
+        <v>118.72035000000001</v>
       </c>
       <c r="F100" s="3">
-        <v>242.35155000000003</v>
+        <v>196.18934999999999</v>
       </c>
       <c r="G100" s="3">
-        <v>251.43615000000003</v>
+        <v>203.54355000000001</v>
       </c>
       <c r="H100" s="3">
-        <v>261.75555000000003</v>
+        <v>211.89734999999999</v>
       </c>
       <c r="I100" s="3">
-        <v>266.93730000000005</v>
+        <v>216.09210000000002</v>
       </c>
       <c r="J100" s="3">
-        <v>269.56125000000003</v>
+        <v>218.21625</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
@@ -3613,31 +3655,31 @@
         <v>100</v>
       </c>
       <c r="B101" s="3">
-        <v>72.235799999999998</v>
+        <v>58.476599999999991</v>
       </c>
       <c r="C101" s="3">
-        <v>85.95089999999999</v>
+        <v>69.579299999999989</v>
       </c>
       <c r="D101" s="3">
-        <v>112.91805000000002</v>
+        <v>91.409850000000006</v>
       </c>
       <c r="E101" s="3">
-        <v>156.55500000000001</v>
+        <v>126.73499999999999</v>
       </c>
       <c r="F101" s="3">
-        <v>249.27525</v>
+        <v>201.79425000000001</v>
       </c>
       <c r="G101" s="3">
-        <v>276.24240000000003</v>
+        <v>223.62480000000002</v>
       </c>
       <c r="H101" s="3">
-        <v>290.46465000000001</v>
+        <v>235.13804999999996</v>
       </c>
       <c r="I101" s="3">
-        <v>293.39730000000009</v>
+        <v>237.51210000000003</v>
       </c>
       <c r="J101" s="3">
-        <v>296.83710000000002</v>
+        <v>240.29669999999999</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
@@ -3645,31 +3687,31 @@
         <v>101</v>
       </c>
       <c r="B102" s="3">
-        <v>72.919350000000009</v>
+        <v>59.029949999999999</v>
       </c>
       <c r="C102" s="3">
-        <v>86.788800000000009</v>
+        <v>70.257599999999996</v>
       </c>
       <c r="D102" s="3">
-        <v>114.02055000000001</v>
+        <v>92.302350000000004</v>
       </c>
       <c r="E102" s="3">
-        <v>158.09850000000003</v>
+        <v>127.98450000000001</v>
       </c>
       <c r="F102" s="3">
-        <v>251.70075000000006</v>
+        <v>203.75775000000002</v>
       </c>
       <c r="G102" s="3">
-        <v>278.97660000000002</v>
+        <v>225.8382</v>
       </c>
       <c r="H102" s="3">
-        <v>293.33115000000004</v>
+        <v>237.45855</v>
       </c>
       <c r="I102" s="3">
-        <v>296.30790000000002</v>
+        <v>239.86829999999998</v>
       </c>
       <c r="J102" s="3">
-        <v>299.74770000000001</v>
+        <v>242.65289999999999</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
@@ -3677,31 +3719,31 @@
         <v>102</v>
       </c>
       <c r="B103" s="3">
-        <v>73.60290000000002</v>
+        <v>59.583300000000008</v>
       </c>
       <c r="C103" s="3">
-        <v>87.582600000000014</v>
+        <v>70.900199999999998</v>
       </c>
       <c r="D103" s="3">
-        <v>115.10100000000001</v>
+        <v>93.177000000000007</v>
       </c>
       <c r="E103" s="3">
-        <v>159.61995000000002</v>
+        <v>129.21615</v>
       </c>
       <c r="F103" s="3">
-        <v>254.17035000000001</v>
+        <v>205.75694999999999</v>
       </c>
       <c r="G103" s="3">
-        <v>281.68875000000003</v>
+        <v>228.03375000000003</v>
       </c>
       <c r="H103" s="3">
-        <v>296.19765000000001</v>
+        <v>239.77905000000001</v>
       </c>
       <c r="I103" s="3">
-        <v>299.19645000000003</v>
+        <v>242.20665</v>
       </c>
       <c r="J103" s="3">
-        <v>302.70240000000001</v>
+        <v>245.04480000000001</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
@@ -3709,31 +3751,31 @@
         <v>103</v>
       </c>
       <c r="B104" s="3">
-        <v>74.264400000000009</v>
+        <v>60.118800000000007</v>
       </c>
       <c r="C104" s="3">
-        <v>88.420500000000018</v>
+        <v>71.578500000000005</v>
       </c>
       <c r="D104" s="3">
-        <v>116.20350000000002</v>
+        <v>94.069500000000005</v>
       </c>
       <c r="E104" s="3">
-        <v>161.16345000000001</v>
+        <v>130.46565000000001</v>
       </c>
       <c r="F104" s="3">
-        <v>256.63995</v>
+        <v>207.75614999999999</v>
       </c>
       <c r="G104" s="3">
-        <v>284.42295000000001</v>
+        <v>230.24715</v>
       </c>
       <c r="H104" s="3">
-        <v>299.06414999999998</v>
+        <v>242.09954999999997</v>
       </c>
       <c r="I104" s="3">
-        <v>302.10705000000002</v>
+        <v>244.56285</v>
       </c>
       <c r="J104" s="3">
-        <v>305.63505000000004</v>
+        <v>247.41885000000002</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
@@ -3741,31 +3783,31 @@
         <v>104</v>
       </c>
       <c r="B105" s="3">
-        <v>74.947950000000006</v>
+        <v>60.672150000000002</v>
       </c>
       <c r="C105" s="3">
-        <v>89.236350000000002</v>
+        <v>72.238949999999988</v>
       </c>
       <c r="D105" s="3">
-        <v>117.28395</v>
+        <v>94.944149999999993</v>
       </c>
       <c r="E105" s="3">
-        <v>162.68490000000003</v>
+        <v>131.69730000000001</v>
       </c>
       <c r="F105" s="3">
-        <v>259.08750000000003</v>
+        <v>209.73749999999998</v>
       </c>
       <c r="G105" s="3">
-        <v>287.15715</v>
+        <v>232.46054999999998</v>
       </c>
       <c r="H105" s="3">
-        <v>301.93065000000007</v>
+        <v>244.42005000000003</v>
       </c>
       <c r="I105" s="3">
-        <v>304.99559999999997</v>
+        <v>246.90119999999999</v>
       </c>
       <c r="J105" s="3">
-        <v>308.56770000000006</v>
+        <v>249.7929</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
@@ -3773,31 +3815,31 @@
         <v>105</v>
       </c>
       <c r="B106" s="3">
-        <v>75.631500000000003</v>
+        <v>61.225499999999997</v>
       </c>
       <c r="C106" s="3">
-        <v>90.074250000000021</v>
+        <v>72.91725000000001</v>
       </c>
       <c r="D106" s="3">
-        <v>118.40850000000002</v>
+        <v>95.854500000000002</v>
       </c>
       <c r="E106" s="3">
-        <v>164.22840000000002</v>
+        <v>132.9468</v>
       </c>
       <c r="F106" s="3">
-        <v>261.55710000000005</v>
+        <v>211.73670000000001</v>
       </c>
       <c r="G106" s="3">
-        <v>289.86930000000007</v>
+        <v>234.65610000000001</v>
       </c>
       <c r="H106" s="3">
-        <v>304.79715000000004</v>
+        <v>246.74055000000001</v>
       </c>
       <c r="I106" s="3">
-        <v>307.88415000000003</v>
+        <v>249.23955000000001</v>
       </c>
       <c r="J106" s="3">
-        <v>311.50035000000003</v>
+        <v>252.16695000000001</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
@@ -3805,31 +3847,31 @@
         <v>106</v>
       </c>
       <c r="B107" s="3">
-        <v>76.337100000000007</v>
+        <v>61.796699999999994</v>
       </c>
       <c r="C107" s="3">
-        <v>90.890100000000004</v>
+        <v>73.577699999999993</v>
       </c>
       <c r="D107" s="3">
-        <v>119.48895000000002</v>
+        <v>96.729150000000004</v>
       </c>
       <c r="E107" s="3">
-        <v>165.74985000000001</v>
+        <v>134.17845</v>
       </c>
       <c r="F107" s="3">
-        <v>264.00465000000003</v>
+        <v>213.71805000000001</v>
       </c>
       <c r="G107" s="3">
-        <v>292.60350000000005</v>
+        <v>236.86950000000002</v>
       </c>
       <c r="H107" s="3">
-        <v>307.6857</v>
+        <v>249.07889999999998</v>
       </c>
       <c r="I107" s="3">
-        <v>310.77269999999999</v>
+        <v>251.57789999999997</v>
       </c>
       <c r="J107" s="3">
-        <v>314.43299999999999</v>
+        <v>254.54099999999997</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
@@ -3837,31 +3879,31 @@
         <v>107</v>
       </c>
       <c r="B108" s="3">
-        <v>77.020650000000018</v>
+        <v>62.350050000000003</v>
       </c>
       <c r="C108" s="3">
-        <v>91.705950000000016</v>
+        <v>74.238150000000005</v>
       </c>
       <c r="D108" s="3">
-        <v>120.59145000000001</v>
+        <v>97.621650000000002</v>
       </c>
       <c r="E108" s="3">
-        <v>167.27130000000002</v>
+        <v>135.4101</v>
       </c>
       <c r="F108" s="3">
-        <v>266.4522</v>
+        <v>215.6994</v>
       </c>
       <c r="G108" s="3">
-        <v>295.31565000000006</v>
+        <v>239.06505000000004</v>
       </c>
       <c r="H108" s="3">
-        <v>310.55220000000003</v>
+        <v>251.39940000000001</v>
       </c>
       <c r="I108" s="3">
-        <v>313.70535000000007</v>
+        <v>253.95195000000004</v>
       </c>
       <c r="J108" s="3">
-        <v>317.36565000000007</v>
+        <v>256.91505000000001</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
@@ -3869,31 +3911,31 @@
         <v>108</v>
       </c>
       <c r="B109" s="3">
-        <v>77.704200000000014</v>
+        <v>62.903400000000005</v>
       </c>
       <c r="C109" s="3">
-        <v>92.543850000000006</v>
+        <v>74.916449999999998</v>
       </c>
       <c r="D109" s="3">
-        <v>121.67190000000001</v>
+        <v>98.496299999999991</v>
       </c>
       <c r="E109" s="3">
-        <v>168.81480000000002</v>
+        <v>136.65960000000001</v>
       </c>
       <c r="F109" s="3">
-        <v>268.92180000000002</v>
+        <v>217.69859999999997</v>
       </c>
       <c r="G109" s="3">
-        <v>298.04984999999999</v>
+        <v>241.27844999999996</v>
       </c>
       <c r="H109" s="3">
-        <v>313.4187</v>
+        <v>253.71989999999997</v>
       </c>
       <c r="I109" s="3">
-        <v>316.59390000000002</v>
+        <v>256.2903</v>
       </c>
       <c r="J109" s="3">
-        <v>320.27625000000006</v>
+        <v>259.27125000000001</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
@@ -3901,31 +3943,31 @@
         <v>109</v>
       </c>
       <c r="B110" s="3">
-        <v>78.387750000000011</v>
+        <v>63.45675</v>
       </c>
       <c r="C110" s="3">
-        <v>93.359700000000018</v>
+        <v>75.576900000000009</v>
       </c>
       <c r="D110" s="3">
-        <v>122.75235000000002</v>
+        <v>99.370950000000008</v>
       </c>
       <c r="E110" s="3">
-        <v>170.33625000000001</v>
+        <v>137.89124999999999</v>
       </c>
       <c r="F110" s="3">
-        <v>271.39140000000003</v>
+        <v>219.6978</v>
       </c>
       <c r="G110" s="3">
-        <v>300.78405000000004</v>
+        <v>243.49185</v>
       </c>
       <c r="H110" s="3">
-        <v>316.28519999999997</v>
+        <v>256.04039999999998</v>
       </c>
       <c r="I110" s="3">
-        <v>319.48245000000003</v>
+        <v>258.62864999999999</v>
       </c>
       <c r="J110" s="3">
-        <v>323.23095000000001</v>
+        <v>261.66314999999997</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
@@ -3933,31 +3975,31 @@
         <v>110</v>
       </c>
       <c r="B111" s="3">
-        <v>79.071299999999994</v>
+        <v>64.010099999999994</v>
       </c>
       <c r="C111" s="3">
-        <v>94.197600000000008</v>
+        <v>76.255200000000002</v>
       </c>
       <c r="D111" s="3">
-        <v>123.85485000000001</v>
+        <v>100.26345000000001</v>
       </c>
       <c r="E111" s="3">
-        <v>171.87975000000003</v>
+        <v>139.14075000000003</v>
       </c>
       <c r="F111" s="3">
-        <v>273.81690000000003</v>
+        <v>221.66130000000001</v>
       </c>
       <c r="G111" s="3">
-        <v>303.49619999999999</v>
+        <v>245.68739999999997</v>
       </c>
       <c r="H111" s="3">
-        <v>319.15170000000001</v>
+        <v>258.36090000000002</v>
       </c>
       <c r="I111" s="3">
-        <v>322.39305000000007</v>
+        <v>260.98485000000005</v>
       </c>
       <c r="J111" s="3">
-        <v>326.16360000000003</v>
+        <v>264.03719999999998</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
@@ -3965,31 +4007,31 @@
         <v>111</v>
       </c>
       <c r="B112" s="3">
-        <v>79.754850000000005</v>
+        <v>64.563450000000003</v>
       </c>
       <c r="C112" s="3">
-        <v>95.013450000000006</v>
+        <v>76.915649999999999</v>
       </c>
       <c r="D112" s="3">
-        <v>124.93530000000001</v>
+        <v>101.13809999999999</v>
       </c>
       <c r="E112" s="3">
-        <v>173.40120000000002</v>
+        <v>140.3724</v>
       </c>
       <c r="F112" s="3">
-        <v>276.28649999999999</v>
+        <v>223.66049999999998</v>
       </c>
       <c r="G112" s="3">
-        <v>306.23040000000003</v>
+        <v>247.9008</v>
       </c>
       <c r="H112" s="3">
-        <v>322.01819999999998</v>
+        <v>260.68139999999994</v>
       </c>
       <c r="I112" s="3">
-        <v>325.28160000000003</v>
+        <v>263.32320000000004</v>
       </c>
       <c r="J112" s="3">
-        <v>329.09625</v>
+        <v>266.41125</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
@@ -3997,31 +4039,31 @@
         <v>112</v>
       </c>
       <c r="B113" s="3">
-        <v>80.460450000000009</v>
+        <v>65.134650000000008</v>
       </c>
       <c r="C113" s="3">
-        <v>95.829300000000003</v>
+        <v>77.576099999999997</v>
       </c>
       <c r="D113" s="3">
-        <v>126.05985000000001</v>
+        <v>102.04845</v>
       </c>
       <c r="E113" s="3">
-        <v>174.94470000000001</v>
+        <v>141.62190000000001</v>
       </c>
       <c r="F113" s="3">
-        <v>278.75610000000006</v>
+        <v>225.65970000000002</v>
       </c>
       <c r="G113" s="3">
-        <v>308.96460000000002</v>
+        <v>250.11420000000001</v>
       </c>
       <c r="H113" s="3">
-        <v>324.88470000000007</v>
+        <v>263.00190000000003</v>
       </c>
       <c r="I113" s="3">
-        <v>328.17015000000009</v>
+        <v>265.66155000000003</v>
       </c>
       <c r="J113" s="3">
-        <v>332.02890000000002</v>
+        <v>268.78530000000001</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
@@ -4029,31 +4071,31 @@
         <v>113</v>
       </c>
       <c r="B114" s="3">
-        <v>81.144000000000005</v>
+        <v>65.688000000000002</v>
       </c>
       <c r="C114" s="3">
-        <v>96.667200000000008</v>
+        <v>78.254400000000004</v>
       </c>
       <c r="D114" s="3">
-        <v>127.14030000000001</v>
+        <v>102.92309999999999</v>
       </c>
       <c r="E114" s="3">
-        <v>176.44410000000002</v>
+        <v>142.8357</v>
       </c>
       <c r="F114" s="3">
-        <v>281.20364999999998</v>
+        <v>227.64104999999998</v>
       </c>
       <c r="G114" s="3">
-        <v>311.67674999999997</v>
+        <v>252.30974999999998</v>
       </c>
       <c r="H114" s="3">
-        <v>327.75120000000004</v>
+        <v>265.32240000000002</v>
       </c>
       <c r="I114" s="3">
-        <v>331.08075000000002</v>
+        <v>268.01774999999998</v>
       </c>
       <c r="J114" s="3">
-        <v>334.96155000000005</v>
+        <v>271.15935000000002</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
@@ -4061,31 +4103,31 @@
         <v>114</v>
       </c>
       <c r="B115" s="3">
-        <v>81.827550000000002</v>
+        <v>66.241349999999997</v>
       </c>
       <c r="C115" s="3">
-        <v>97.483050000000006</v>
+        <v>78.914850000000001</v>
       </c>
       <c r="D115" s="3">
-        <v>128.24279999999999</v>
+        <v>103.81559999999999</v>
       </c>
       <c r="E115" s="3">
-        <v>177.98760000000001</v>
+        <v>144.08519999999999</v>
       </c>
       <c r="F115" s="3">
-        <v>283.67325000000005</v>
+        <v>229.64025000000001</v>
       </c>
       <c r="G115" s="3">
-        <v>314.41095000000001</v>
+        <v>254.52315000000002</v>
       </c>
       <c r="H115" s="3">
-        <v>330.61770000000001</v>
+        <v>267.6429</v>
       </c>
       <c r="I115" s="3">
-        <v>333.99135000000001</v>
+        <v>270.37394999999998</v>
       </c>
       <c r="J115" s="3">
-        <v>337.89420000000007</v>
+        <v>273.53340000000003</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
@@ -4093,31 +4135,31 @@
         <v>115</v>
       </c>
       <c r="B116" s="3">
-        <v>82.511100000000013</v>
+        <v>66.794700000000006</v>
       </c>
       <c r="C116" s="3">
-        <v>98.298900000000003</v>
+        <v>79.575299999999999</v>
       </c>
       <c r="D116" s="3">
-        <v>129.32325</v>
+        <v>104.69025000000001</v>
       </c>
       <c r="E116" s="3">
-        <v>179.53110000000001</v>
+        <v>145.3347</v>
       </c>
       <c r="F116" s="3">
-        <v>286.12079999999997</v>
+        <v>231.62159999999997</v>
       </c>
       <c r="G116" s="3">
-        <v>317.12310000000002</v>
+        <v>256.71870000000001</v>
       </c>
       <c r="H116" s="3">
-        <v>333.48420000000004</v>
+        <v>269.96340000000004</v>
       </c>
       <c r="I116" s="3">
-        <v>336.87990000000002</v>
+        <v>272.71230000000003</v>
       </c>
       <c r="J116" s="3">
-        <v>340.82684999999998</v>
+        <v>275.90744999999998</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
@@ -4125,31 +4167,31 @@
         <v>116</v>
       </c>
       <c r="B117" s="3">
-        <v>83.194649999999996</v>
+        <v>67.348049999999986</v>
       </c>
       <c r="C117" s="3">
-        <v>99.136800000000022</v>
+        <v>80.253600000000006</v>
       </c>
       <c r="D117" s="3">
-        <v>130.42575000000002</v>
+        <v>105.58275</v>
       </c>
       <c r="E117" s="3">
-        <v>181.05255000000002</v>
+        <v>146.56635</v>
       </c>
       <c r="F117" s="3">
-        <v>288.56835000000001</v>
+        <v>233.60294999999999</v>
       </c>
       <c r="G117" s="3">
-        <v>319.85730000000007</v>
+        <v>258.93210000000005</v>
       </c>
       <c r="H117" s="3">
-        <v>336.35070000000002</v>
+        <v>272.28390000000002</v>
       </c>
       <c r="I117" s="3">
-        <v>339.76845000000003</v>
+        <v>275.05065000000002</v>
       </c>
       <c r="J117" s="3">
-        <v>343.75950000000006</v>
+        <v>278.28150000000005</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
@@ -4157,31 +4199,31 @@
         <v>117</v>
       </c>
       <c r="B118" s="3">
-        <v>83.878200000000007</v>
+        <v>67.901399999999995</v>
       </c>
       <c r="C118" s="3">
-        <v>99.952650000000006</v>
+        <v>80.914050000000003</v>
       </c>
       <c r="D118" s="3">
-        <v>131.50620000000001</v>
+        <v>106.45739999999999</v>
       </c>
       <c r="E118" s="3">
-        <v>182.59605000000002</v>
+        <v>147.81585000000001</v>
       </c>
       <c r="F118" s="3">
-        <v>291.03795000000002</v>
+        <v>235.60215000000002</v>
       </c>
       <c r="G118" s="3">
-        <v>322.59150000000005</v>
+        <v>261.14550000000003</v>
       </c>
       <c r="H118" s="3">
-        <v>339.21720000000005</v>
+        <v>274.6044</v>
       </c>
       <c r="I118" s="3">
-        <v>342.67905000000002</v>
+        <v>277.40684999999996</v>
       </c>
       <c r="J118" s="3">
-        <v>346.69215000000003</v>
+        <v>280.65555000000001</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
@@ -4189,31 +4231,31 @@
         <v>118</v>
       </c>
       <c r="B119" s="3">
-        <v>84.583799999999997</v>
+        <v>68.4726</v>
       </c>
       <c r="C119" s="3">
-        <v>100.79055000000001</v>
+        <v>81.592349999999996</v>
       </c>
       <c r="D119" s="3">
-        <v>132.60870000000003</v>
+        <v>107.34990000000001</v>
       </c>
       <c r="E119" s="3">
-        <v>184.11750000000001</v>
+        <v>149.04749999999999</v>
       </c>
       <c r="F119" s="3">
-        <v>293.50755000000009</v>
+        <v>237.60135000000005</v>
       </c>
       <c r="G119" s="3">
-        <v>325.30365</v>
+        <v>263.34105</v>
       </c>
       <c r="H119" s="3">
-        <v>342.08370000000002</v>
+        <v>276.92489999999998</v>
       </c>
       <c r="I119" s="3">
-        <v>345.56760000000003</v>
+        <v>279.74520000000001</v>
       </c>
       <c r="J119" s="3">
-        <v>349.62479999999999</v>
+        <v>283.02960000000002</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
@@ -4221,31 +4263,31 @@
         <v>119</v>
       </c>
       <c r="B120" s="3">
-        <v>85.267350000000008</v>
+        <v>69.025950000000009</v>
       </c>
       <c r="C120" s="3">
-        <v>101.58435</v>
+        <v>82.234949999999998</v>
       </c>
       <c r="D120" s="3">
-        <v>133.71120000000002</v>
+        <v>108.2424</v>
       </c>
       <c r="E120" s="3">
-        <v>185.63895000000002</v>
+        <v>150.27915000000002</v>
       </c>
       <c r="F120" s="3">
-        <v>295.93305000000004</v>
+        <v>239.56485000000001</v>
       </c>
       <c r="G120" s="3">
-        <v>328.03785000000005</v>
+        <v>265.55445000000003</v>
       </c>
       <c r="H120" s="3">
-        <v>344.9502</v>
+        <v>279.24540000000002</v>
       </c>
       <c r="I120" s="3">
-        <v>348.47820000000002</v>
+        <v>282.10140000000001</v>
       </c>
       <c r="J120" s="3">
-        <v>352.53539999999998</v>
+        <v>285.38579999999996</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
@@ -4253,31 +4295,31 @@
         <v>120</v>
       </c>
       <c r="B121" s="3">
-        <v>85.95089999999999</v>
+        <v>69.579299999999989</v>
       </c>
       <c r="C121" s="3">
-        <v>102.42225000000002</v>
+        <v>82.913250000000005</v>
       </c>
       <c r="D121" s="3">
-        <v>134.81370000000001</v>
+        <v>109.1349</v>
       </c>
       <c r="E121" s="3">
-        <v>187.16040000000001</v>
+        <v>151.51079999999999</v>
       </c>
       <c r="F121" s="3">
-        <v>298.40265000000005</v>
+        <v>241.56405000000004</v>
       </c>
       <c r="G121" s="3">
-        <v>330.77205000000004</v>
+        <v>267.76785000000001</v>
       </c>
       <c r="H121" s="3">
-        <v>347.83875000000006</v>
+        <v>281.58375000000001</v>
       </c>
       <c r="I121" s="3">
-        <v>351.36675000000002</v>
+        <v>284.43975</v>
       </c>
       <c r="J121" s="3">
-        <v>355.49010000000004</v>
+        <v>287.77769999999998</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
@@ -4285,31 +4327,31 @@
         <v>121</v>
       </c>
       <c r="B122" s="3">
-        <v>86.634450000000001</v>
+        <v>70.132649999999998</v>
       </c>
       <c r="C122" s="3">
-        <v>103.26015000000001</v>
+        <v>83.591549999999998</v>
       </c>
       <c r="D122" s="3">
-        <v>135.89415</v>
+        <v>110.00955</v>
       </c>
       <c r="E122" s="3">
-        <v>188.70390000000003</v>
+        <v>152.7603</v>
       </c>
       <c r="F122" s="3">
-        <v>300.85020000000003</v>
+        <v>243.5454</v>
       </c>
       <c r="G122" s="3">
-        <v>333.48420000000004</v>
+        <v>269.96340000000004</v>
       </c>
       <c r="H122" s="3">
-        <v>350.70525000000009</v>
+        <v>283.90425000000005</v>
       </c>
       <c r="I122" s="3">
-        <v>354.27735000000001</v>
+        <v>286.79595</v>
       </c>
       <c r="J122" s="3">
-        <v>358.42275000000001</v>
+        <v>290.15174999999999</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
@@ -4317,31 +4359,31 @@
         <v>122</v>
       </c>
       <c r="B123" s="3">
-        <v>87.318000000000012</v>
+        <v>70.686000000000007</v>
       </c>
       <c r="C123" s="3">
-        <v>104.07600000000001</v>
+        <v>84.251999999999995</v>
       </c>
       <c r="D123" s="3">
-        <v>136.97460000000001</v>
+        <v>110.88419999999999</v>
       </c>
       <c r="E123" s="3">
-        <v>190.22535000000002</v>
+        <v>153.99195</v>
       </c>
       <c r="F123" s="3">
-        <v>303.31980000000004</v>
+        <v>245.54460000000003</v>
       </c>
       <c r="G123" s="3">
-        <v>336.21839999999997</v>
+        <v>272.17679999999996</v>
       </c>
       <c r="H123" s="3">
-        <v>353.57175000000001</v>
+        <v>286.22475000000003</v>
       </c>
       <c r="I123" s="3">
-        <v>357.16590000000002</v>
+        <v>289.1343</v>
       </c>
       <c r="J123" s="3">
-        <v>361.35540000000003</v>
+        <v>292.5258</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
@@ -4349,31 +4391,31 @@
         <v>123</v>
       </c>
       <c r="B124" s="3">
-        <v>88.001549999999995</v>
+        <v>71.239349999999988</v>
       </c>
       <c r="C124" s="3">
-        <v>104.89185000000001</v>
+        <v>84.912450000000007</v>
       </c>
       <c r="D124" s="3">
-        <v>138.07710000000003</v>
+        <v>111.77670000000001</v>
       </c>
       <c r="E124" s="3">
-        <v>191.76885000000001</v>
+        <v>155.24144999999999</v>
       </c>
       <c r="F124" s="3">
-        <v>305.7894</v>
+        <v>247.5438</v>
       </c>
       <c r="G124" s="3">
-        <v>338.9305500000001</v>
+        <v>274.37235000000004</v>
       </c>
       <c r="H124" s="3">
-        <v>356.43825000000004</v>
+        <v>288.54525000000001</v>
       </c>
       <c r="I124" s="3">
-        <v>360.05445000000003</v>
+        <v>291.47264999999999</v>
       </c>
       <c r="J124" s="3">
-        <v>364.28805000000006</v>
+        <v>294.89985000000001</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
@@ -4381,31 +4423,31 @@
         <v>124</v>
       </c>
       <c r="B125" s="3">
-        <v>88.707150000000013</v>
+        <v>71.810550000000006</v>
       </c>
       <c r="C125" s="3">
-        <v>105.72975000000001</v>
+        <v>85.59075</v>
       </c>
       <c r="D125" s="3">
-        <v>139.15755000000001</v>
+        <v>112.65135000000001</v>
       </c>
       <c r="E125" s="3">
-        <v>193.31235000000001</v>
+        <v>156.49095</v>
       </c>
       <c r="F125" s="3">
-        <v>308.2149</v>
+        <v>249.50730000000001</v>
       </c>
       <c r="G125" s="3">
-        <v>341.68680000000006</v>
+        <v>276.60360000000003</v>
       </c>
       <c r="H125" s="3">
-        <v>359.32680000000005</v>
+        <v>290.8836</v>
       </c>
       <c r="I125" s="3">
-        <v>362.94300000000004</v>
+        <v>293.81100000000004</v>
       </c>
       <c r="J125" s="3">
-        <v>367.22070000000002</v>
+        <v>297.27389999999997</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
@@ -4413,31 +4455,31 @@
         <v>125</v>
       </c>
       <c r="B126" s="3">
-        <v>89.39070000000001</v>
+        <v>72.363900000000001</v>
       </c>
       <c r="C126" s="3">
-        <v>106.54560000000001</v>
+        <v>86.251200000000011</v>
       </c>
       <c r="D126" s="3">
-        <v>140.26005000000004</v>
+        <v>113.54385000000001</v>
       </c>
       <c r="E126" s="3">
-        <v>194.81175000000002</v>
+        <v>157.70474999999999</v>
       </c>
       <c r="F126" s="3">
-        <v>310.68450000000007</v>
+        <v>251.50650000000002</v>
       </c>
       <c r="G126" s="3">
-        <v>344.42099999999999</v>
+        <v>278.81699999999995</v>
       </c>
       <c r="H126" s="3">
-        <v>362.19329999999997</v>
+        <v>293.20409999999998</v>
       </c>
       <c r="I126" s="3">
-        <v>365.87565000000006</v>
+        <v>296.18505000000005</v>
       </c>
       <c r="J126" s="3">
-        <v>370.15335000000005</v>
+        <v>299.64795000000004</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
@@ -4445,31 +4487,31 @@
         <v>126</v>
       </c>
       <c r="B127" s="3">
-        <v>90.074250000000021</v>
+        <v>72.91725000000001</v>
       </c>
       <c r="C127" s="3">
-        <v>107.38350000000001</v>
+        <v>86.929500000000004</v>
       </c>
       <c r="D127" s="3">
-        <v>141.34049999999999</v>
+        <v>114.41849999999998</v>
       </c>
       <c r="E127" s="3">
-        <v>196.35525000000001</v>
+        <v>158.95425</v>
       </c>
       <c r="F127" s="3">
-        <v>313.15410000000003</v>
+        <v>253.50570000000002</v>
       </c>
       <c r="G127" s="3">
-        <v>347.13315</v>
+        <v>281.01254999999998</v>
       </c>
       <c r="H127" s="3">
-        <v>365.05980000000005</v>
+        <v>295.52460000000002</v>
       </c>
       <c r="I127" s="3">
-        <v>368.76420000000002</v>
+        <v>298.52339999999998</v>
       </c>
       <c r="J127" s="3">
-        <v>373.10805000000005</v>
+        <v>302.03985</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
@@ -4477,31 +4519,31 @@
         <v>127</v>
       </c>
       <c r="B128" s="3">
-        <v>90.757800000000003</v>
+        <v>73.47059999999999</v>
       </c>
       <c r="C128" s="3">
-        <v>108.17730000000002</v>
+        <v>87.572100000000006</v>
       </c>
       <c r="D128" s="3">
-        <v>142.46505000000002</v>
+        <v>115.32885</v>
       </c>
       <c r="E128" s="3">
-        <v>197.87670000000003</v>
+        <v>160.1859</v>
       </c>
       <c r="F128" s="3">
-        <v>315.60165000000001</v>
+        <v>255.48704999999998</v>
       </c>
       <c r="G128" s="3">
-        <v>349.86734999999999</v>
+        <v>283.22595000000001</v>
       </c>
       <c r="H128" s="3">
-        <v>367.92630000000008</v>
+        <v>297.84510000000006</v>
       </c>
       <c r="I128" s="3">
-        <v>371.65275000000008</v>
+        <v>300.86175000000003</v>
       </c>
       <c r="J128" s="3">
-        <v>376.01865000000004</v>
+        <v>304.39605</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
@@ -4509,31 +4551,31 @@
         <v>128</v>
       </c>
       <c r="B129" s="3">
-        <v>91.441350000000014</v>
+        <v>74.023949999999999</v>
       </c>
       <c r="C129" s="3">
-        <v>109.01520000000001</v>
+        <v>88.250399999999999</v>
       </c>
       <c r="D129" s="3">
-        <v>143.5455</v>
+        <v>116.20350000000001</v>
       </c>
       <c r="E129" s="3">
-        <v>199.42020000000002</v>
+        <v>161.43540000000002</v>
       </c>
       <c r="F129" s="3">
-        <v>318.04920000000004</v>
+        <v>257.46840000000003</v>
       </c>
       <c r="G129" s="3">
-        <v>352.60155000000003</v>
+        <v>285.43935000000005</v>
       </c>
       <c r="H129" s="3">
-        <v>370.79280000000006</v>
+        <v>300.16560000000004</v>
       </c>
       <c r="I129" s="3">
-        <v>374.56335000000007</v>
+        <v>303.21795000000003</v>
       </c>
       <c r="J129" s="3">
-        <v>378.95130000000006</v>
+        <v>306.77010000000007</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
@@ -4541,31 +4583,31 @@
         <v>129</v>
       </c>
       <c r="B130" s="3">
-        <v>92.146950000000004</v>
+        <v>74.595150000000004</v>
       </c>
       <c r="C130" s="3">
-        <v>109.8531</v>
+        <v>88.928699999999992</v>
       </c>
       <c r="D130" s="3">
-        <v>144.648</v>
+        <v>117.09599999999999</v>
       </c>
       <c r="E130" s="3">
-        <v>200.94165000000001</v>
+        <v>162.66704999999999</v>
       </c>
       <c r="F130" s="3">
-        <v>320.51880000000006</v>
+        <v>259.4676</v>
       </c>
       <c r="G130" s="3">
-        <v>355.31370000000004</v>
+        <v>287.63490000000002</v>
       </c>
       <c r="H130" s="3">
-        <v>373.65930000000009</v>
+        <v>302.48610000000002</v>
       </c>
       <c r="I130" s="3">
-        <v>377.45190000000002</v>
+        <v>305.55630000000002</v>
       </c>
       <c r="J130" s="3">
-        <v>381.88395000000003</v>
+        <v>309.14415000000002</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
@@ -4573,31 +4615,31 @@
         <v>130</v>
       </c>
       <c r="B131" s="3">
-        <v>92.830500000000015</v>
+        <v>75.148500000000013</v>
       </c>
       <c r="C131" s="3">
-        <v>110.66895000000001</v>
+        <v>89.589150000000004</v>
       </c>
       <c r="D131" s="3">
-        <v>145.72845000000001</v>
+        <v>117.97065000000001</v>
       </c>
       <c r="E131" s="3">
-        <v>202.48515000000003</v>
+        <v>163.91655</v>
       </c>
       <c r="F131" s="3">
-        <v>322.96634999999998</v>
+        <v>261.44894999999997</v>
       </c>
       <c r="G131" s="3">
-        <v>358.04790000000003</v>
+        <v>289.84829999999999</v>
       </c>
       <c r="H131" s="3">
-        <v>376.5258</v>
+        <v>304.8066</v>
       </c>
       <c r="I131" s="3">
-        <v>380.34045000000003</v>
+        <v>307.89465000000001</v>
       </c>
       <c r="J131" s="3">
-        <v>384.81660000000005</v>
+        <v>311.51820000000004</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
@@ -4605,31 +4647,31 @@
         <v>131</v>
       </c>
       <c r="B132" s="3">
-        <v>93.514049999999997</v>
+        <v>75.701849999999993</v>
       </c>
       <c r="C132" s="3">
-        <v>111.48480000000002</v>
+        <v>90.249600000000015</v>
       </c>
       <c r="D132" s="3">
-        <v>146.83095000000003</v>
+        <v>118.86315000000002</v>
       </c>
       <c r="E132" s="3">
-        <v>203.98455000000001</v>
+        <v>165.13035000000002</v>
       </c>
       <c r="F132" s="3">
-        <v>325.43595000000005</v>
+        <v>263.44815</v>
       </c>
       <c r="G132" s="3">
-        <v>360.78210000000007</v>
+        <v>292.06170000000003</v>
       </c>
       <c r="H132" s="3">
-        <v>379.39230000000003</v>
+        <v>307.12709999999998</v>
       </c>
       <c r="I132" s="3">
-        <v>383.25105000000008</v>
+        <v>310.25085000000001</v>
       </c>
       <c r="J132" s="3">
-        <v>387.74925000000002</v>
+        <v>313.89224999999999</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
@@ -4637,31 +4679,31 @@
         <v>132</v>
       </c>
       <c r="B133" s="3">
-        <v>94.197600000000008</v>
+        <v>76.255200000000002</v>
       </c>
       <c r="C133" s="3">
-        <v>112.30065</v>
+        <v>90.910049999999998</v>
       </c>
       <c r="D133" s="3">
-        <v>147.91140000000001</v>
+        <v>119.73779999999999</v>
       </c>
       <c r="E133" s="3">
-        <v>205.52805000000001</v>
+        <v>166.37984999999998</v>
       </c>
       <c r="F133" s="3">
-        <v>327.88349999999997</v>
+        <v>265.42949999999996</v>
       </c>
       <c r="G133" s="3">
-        <v>363.49425000000002</v>
+        <v>294.25725</v>
       </c>
       <c r="H133" s="3">
-        <v>382.28084999999999</v>
+        <v>309.46544999999998</v>
       </c>
       <c r="I133" s="3">
-        <v>386.16165000000007</v>
+        <v>312.60705000000002</v>
       </c>
       <c r="J133" s="3">
-        <v>390.68190000000004</v>
+        <v>316.2663</v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
@@ -4669,31 +4711,31 @@
         <v>133</v>
       </c>
       <c r="B134" s="3">
-        <v>94.859100000000012</v>
+        <v>76.790700000000015</v>
       </c>
       <c r="C134" s="3">
-        <v>113.13855000000001</v>
+        <v>91.588350000000005</v>
       </c>
       <c r="D134" s="3">
-        <v>148.99185</v>
+        <v>120.61245</v>
       </c>
       <c r="E134" s="3">
-        <v>207.07155000000003</v>
+        <v>167.62935000000002</v>
       </c>
       <c r="F134" s="3">
-        <v>330.33105</v>
+        <v>267.41084999999998</v>
       </c>
       <c r="G134" s="3">
-        <v>366.22845000000007</v>
+        <v>296.47065000000003</v>
       </c>
       <c r="H134" s="3">
-        <v>385.14735000000002</v>
+        <v>311.78595000000001</v>
       </c>
       <c r="I134" s="3">
-        <v>389.05020000000002</v>
+        <v>314.94540000000001</v>
       </c>
       <c r="J134" s="3">
-        <v>393.61455000000001</v>
+        <v>318.64034999999996</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
@@ -4701,31 +4743,31 @@
         <v>134</v>
       </c>
       <c r="B135" s="3">
-        <v>95.542649999999995</v>
+        <v>77.344049999999996</v>
       </c>
       <c r="C135" s="3">
-        <v>113.97645000000001</v>
+        <v>92.266649999999998</v>
       </c>
       <c r="D135" s="3">
-        <v>150.1164</v>
+        <v>121.52279999999999</v>
       </c>
       <c r="E135" s="3">
-        <v>208.59300000000002</v>
+        <v>168.86099999999999</v>
       </c>
       <c r="F135" s="3">
-        <v>332.80065000000002</v>
+        <v>269.41005000000001</v>
       </c>
       <c r="G135" s="3">
-        <v>368.94060000000002</v>
+        <v>298.6662</v>
       </c>
       <c r="H135" s="3">
-        <v>388.01385000000005</v>
+        <v>314.10645</v>
       </c>
       <c r="I135" s="3">
-        <v>391.93875000000003</v>
+        <v>317.28375</v>
       </c>
       <c r="J135" s="3">
-        <v>396.54720000000009</v>
+        <v>321.01440000000002</v>
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
@@ -4733,31 +4775,31 @@
         <v>135</v>
       </c>
       <c r="B136" s="3">
-        <v>96.248250000000013</v>
+        <v>77.91525</v>
       </c>
       <c r="C136" s="3">
-        <v>114.77024999999999</v>
+        <v>92.909249999999986</v>
       </c>
       <c r="D136" s="3">
-        <v>151.19684999999998</v>
+        <v>122.39744999999998</v>
       </c>
       <c r="E136" s="3">
-        <v>210.13650000000001</v>
+        <v>170.1105</v>
       </c>
       <c r="F136" s="3">
-        <v>335.27025000000009</v>
+        <v>271.40925000000004</v>
       </c>
       <c r="G136" s="3">
-        <v>371.6748</v>
+        <v>300.87959999999998</v>
       </c>
       <c r="H136" s="3">
-        <v>390.88035000000008</v>
+        <v>316.42695000000003</v>
       </c>
       <c r="I136" s="3">
-        <v>394.84935000000002</v>
+        <v>319.63995</v>
       </c>
       <c r="J136" s="3">
-        <v>399.47985</v>
+        <v>323.38844999999998</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
@@ -4765,31 +4807,31 @@
         <v>136</v>
       </c>
       <c r="B137" s="3">
-        <v>96.93180000000001</v>
+        <v>78.468599999999995</v>
       </c>
       <c r="C137" s="3">
-        <v>115.60815000000001</v>
+        <v>93.587550000000007</v>
       </c>
       <c r="D137" s="3">
-        <v>152.29935</v>
+        <v>123.28994999999999</v>
       </c>
       <c r="E137" s="3">
-        <v>211.65795000000003</v>
+        <v>171.34215</v>
       </c>
       <c r="F137" s="3">
-        <v>337.71780000000007</v>
+        <v>273.39060000000001</v>
       </c>
       <c r="G137" s="3">
-        <v>374.40900000000005</v>
+        <v>303.09300000000002</v>
       </c>
       <c r="H137" s="3">
-        <v>393.74685000000005</v>
+        <v>318.74745000000001</v>
       </c>
       <c r="I137" s="3">
-        <v>397.75994999999995</v>
+        <v>321.99614999999994</v>
       </c>
       <c r="J137" s="3">
-        <v>402.41250000000002</v>
+        <v>325.76249999999999</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
@@ -4797,31 +4839,31 @@
         <v>137</v>
       </c>
       <c r="B138" s="3">
-        <v>97.615350000000021</v>
+        <v>79.021950000000004</v>
       </c>
       <c r="C138" s="3">
-        <v>116.42400000000001</v>
+        <v>94.24799999999999</v>
       </c>
       <c r="D138" s="3">
-        <v>153.37980000000002</v>
+        <v>124.16460000000002</v>
       </c>
       <c r="E138" s="3">
-        <v>213.20145000000002</v>
+        <v>172.59164999999999</v>
       </c>
       <c r="F138" s="3">
-        <v>340.16535000000005</v>
+        <v>275.37195000000003</v>
       </c>
       <c r="G138" s="3">
-        <v>377.12115</v>
+        <v>305.28854999999999</v>
       </c>
       <c r="H138" s="3">
-        <v>396.61335000000003</v>
+        <v>321.06795</v>
       </c>
       <c r="I138" s="3">
-        <v>400.64850000000001</v>
+        <v>324.33449999999999</v>
       </c>
       <c r="J138" s="3">
-        <v>405.3451500000001</v>
+        <v>328.13655000000006</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
@@ -4829,31 +4871,31 @@
         <v>138</v>
       </c>
       <c r="B139" s="3">
-        <v>98.298900000000003</v>
+        <v>79.575299999999999</v>
       </c>
       <c r="C139" s="3">
-        <v>117.2619</v>
+        <v>94.926299999999998</v>
       </c>
       <c r="D139" s="3">
-        <v>154.48230000000001</v>
+        <v>125.05710000000001</v>
       </c>
       <c r="E139" s="3">
-        <v>214.70085000000003</v>
+        <v>173.80545000000004</v>
       </c>
       <c r="F139" s="3">
-        <v>342.63494999999995</v>
+        <v>277.37114999999994</v>
       </c>
       <c r="G139" s="3">
-        <v>379.85535000000004</v>
+        <v>307.50195000000002</v>
       </c>
       <c r="H139" s="3">
-        <v>399.47985</v>
+        <v>323.38844999999998</v>
       </c>
       <c r="I139" s="3">
-        <v>403.53704999999997</v>
+        <v>326.67284999999998</v>
       </c>
       <c r="J139" s="3">
-        <v>408.27780000000001</v>
+        <v>330.51060000000001</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
@@ -4861,31 +4903,31 @@
         <v>139</v>
       </c>
       <c r="B140" s="3">
-        <v>98.982450000000014</v>
+        <v>80.128650000000007</v>
       </c>
       <c r="C140" s="3">
-        <v>118.09980000000002</v>
+        <v>95.604600000000005</v>
       </c>
       <c r="D140" s="3">
-        <v>155.56274999999999</v>
+        <v>125.93174999999999</v>
       </c>
       <c r="E140" s="3">
-        <v>216.24435000000003</v>
+        <v>175.05494999999999</v>
       </c>
       <c r="F140" s="3">
-        <v>345.08250000000004</v>
+        <v>279.35250000000002</v>
       </c>
       <c r="G140" s="3">
-        <v>382.58954999999997</v>
+        <v>309.71535</v>
       </c>
       <c r="H140" s="3">
-        <v>402.34635000000003</v>
+        <v>325.70895000000002</v>
       </c>
       <c r="I140" s="3">
-        <v>406.44765000000001</v>
+        <v>329.02904999999998</v>
       </c>
       <c r="J140" s="3">
-        <v>411.21045000000004</v>
+        <v>332.88465000000002</v>
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
@@ -4893,31 +4935,31 @@
         <v>140</v>
       </c>
       <c r="B141" s="3">
-        <v>99.666000000000025</v>
+        <v>80.682000000000016</v>
       </c>
       <c r="C141" s="3">
-        <v>118.89360000000002</v>
+        <v>96.247200000000007</v>
       </c>
       <c r="D141" s="3">
-        <v>156.66525000000001</v>
+        <v>126.82425000000001</v>
       </c>
       <c r="E141" s="3">
-        <v>217.76580000000001</v>
+        <v>176.28660000000002</v>
       </c>
       <c r="F141" s="3">
-        <v>347.55210000000005</v>
+        <v>281.35169999999999</v>
       </c>
       <c r="G141" s="3">
-        <v>385.30170000000004</v>
+        <v>311.91090000000003</v>
       </c>
       <c r="H141" s="3">
-        <v>405.21285000000006</v>
+        <v>328.02945</v>
       </c>
       <c r="I141" s="3">
-        <v>409.33620000000002</v>
+        <v>331.36739999999998</v>
       </c>
       <c r="J141" s="3">
-        <v>414.14310000000006</v>
+        <v>335.25870000000003</v>
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
@@ -4925,31 +4967,31 @@
         <v>141</v>
       </c>
       <c r="B142" s="3">
-        <v>100.37160000000002</v>
+        <v>81.253200000000007</v>
       </c>
       <c r="C142" s="3">
-        <v>119.73150000000001</v>
+        <v>96.9255</v>
       </c>
       <c r="D142" s="3">
-        <v>157.76775000000001</v>
+        <v>127.71674999999999</v>
       </c>
       <c r="E142" s="3">
-        <v>219.30930000000001</v>
+        <v>177.53609999999998</v>
       </c>
       <c r="F142" s="3">
-        <v>349.99964999999997</v>
+        <v>283.33304999999996</v>
       </c>
       <c r="G142" s="3">
-        <v>388.03590000000003</v>
+        <v>314.12430000000001</v>
       </c>
       <c r="H142" s="3">
-        <v>408.07935000000003</v>
+        <v>330.34994999999998</v>
       </c>
       <c r="I142" s="3">
-        <v>412.22474999999997</v>
+        <v>333.70574999999997</v>
       </c>
       <c r="J142" s="3">
-        <v>417.07575000000003</v>
+        <v>337.63275000000004</v>
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
@@ -4957,31 +4999,31 @@
         <v>142</v>
       </c>
       <c r="B143" s="3">
-        <v>101.05515</v>
+        <v>81.806549999999987</v>
       </c>
       <c r="C143" s="3">
-        <v>120.54735000000001</v>
+        <v>97.585949999999997</v>
       </c>
       <c r="D143" s="3">
-        <v>158.87025000000003</v>
+        <v>128.60925</v>
       </c>
       <c r="E143" s="3">
-        <v>220.83075000000002</v>
+        <v>178.76775000000001</v>
       </c>
       <c r="F143" s="3">
-        <v>352.44720000000007</v>
+        <v>285.31440000000003</v>
       </c>
       <c r="G143" s="3">
-        <v>390.74805000000003</v>
+        <v>316.31985000000003</v>
       </c>
       <c r="H143" s="3">
-        <v>410.94585000000001</v>
+        <v>332.67045000000002</v>
       </c>
       <c r="I143" s="3">
-        <v>415.11330000000004</v>
+        <v>336.04410000000001</v>
       </c>
       <c r="J143" s="3">
-        <v>420.00839999999999</v>
+        <v>340.0068</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
@@ -4989,31 +5031,31 @@
         <v>143</v>
       </c>
       <c r="B144" s="3">
-        <v>101.73870000000001</v>
+        <v>82.359899999999996</v>
       </c>
       <c r="C144" s="3">
-        <v>121.38525000000001</v>
+        <v>98.264250000000004</v>
       </c>
       <c r="D144" s="3">
-        <v>159.95070000000004</v>
+        <v>129.48390000000003</v>
       </c>
       <c r="E144" s="3">
-        <v>222.37425000000002</v>
+        <v>180.01724999999999</v>
       </c>
       <c r="F144" s="3">
-        <v>354.91680000000002</v>
+        <v>287.31360000000001</v>
       </c>
       <c r="G144" s="3">
-        <v>393.48225000000002</v>
+        <v>318.53325000000001</v>
       </c>
       <c r="H144" s="3">
-        <v>413.81234999999998</v>
+        <v>334.99094999999994</v>
       </c>
       <c r="I144" s="3">
-        <v>418.04595</v>
+        <v>338.41815000000003</v>
       </c>
       <c r="J144" s="3">
-        <v>422.94105000000008</v>
+        <v>342.38085000000001</v>
       </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.25">
@@ -5021,31 +5063,31 @@
         <v>144</v>
       </c>
       <c r="B145" s="3">
-        <v>102.42225000000002</v>
+        <v>82.913250000000005</v>
       </c>
       <c r="C145" s="3">
-        <v>122.20110000000001</v>
+        <v>98.924700000000001</v>
       </c>
       <c r="D145" s="3">
-        <v>161.05320000000003</v>
+        <v>130.37640000000002</v>
       </c>
       <c r="E145" s="3">
-        <v>223.89570000000001</v>
+        <v>181.24889999999999</v>
       </c>
       <c r="F145" s="3">
-        <v>357.38640000000009</v>
+        <v>289.31280000000004</v>
       </c>
       <c r="G145" s="3">
-        <v>396.21645000000001</v>
+        <v>320.74664999999999</v>
       </c>
       <c r="H145" s="3">
-        <v>416.67885000000001</v>
+        <v>337.31144999999998</v>
       </c>
       <c r="I145" s="3">
-        <v>420.93450000000007</v>
+        <v>340.75650000000002</v>
       </c>
       <c r="J145" s="3">
-        <v>425.89575000000002</v>
+        <v>344.77274999999997</v>
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.25">
@@ -5053,31 +5095,31 @@
         <v>145</v>
       </c>
       <c r="B146" s="3">
-        <v>103.1058</v>
+        <v>83.4666</v>
       </c>
       <c r="C146" s="3">
-        <v>123.01695000000001</v>
+        <v>99.585149999999999</v>
       </c>
       <c r="D146" s="3">
-        <v>162.13365000000002</v>
+        <v>131.25104999999999</v>
       </c>
       <c r="E146" s="3">
-        <v>225.41715000000002</v>
+        <v>182.48055000000002</v>
       </c>
       <c r="F146" s="3">
-        <v>359.83395000000002</v>
+        <v>291.29415</v>
       </c>
       <c r="G146" s="3">
-        <v>398.92860000000002</v>
+        <v>322.94220000000001</v>
       </c>
       <c r="H146" s="3">
-        <v>419.56740000000002</v>
+        <v>339.64980000000003</v>
       </c>
       <c r="I146" s="3">
-        <v>423.82305000000002</v>
+        <v>343.09485000000001</v>
       </c>
       <c r="J146" s="3">
-        <v>428.80635000000001</v>
+        <v>347.12894999999997</v>
       </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.25">
@@ -5085,31 +5127,31 @@
         <v>146</v>
       </c>
       <c r="B147" s="3">
-        <v>103.78935000000001</v>
+        <v>84.019950000000009</v>
       </c>
       <c r="C147" s="3">
-        <v>123.85485000000001</v>
+        <v>100.26345000000001</v>
       </c>
       <c r="D147" s="3">
-        <v>163.2141</v>
+        <v>132.12569999999999</v>
       </c>
       <c r="E147" s="3">
-        <v>226.96065000000004</v>
+        <v>183.73005000000001</v>
       </c>
       <c r="F147" s="3">
-        <v>362.28150000000005</v>
+        <v>293.27550000000002</v>
       </c>
       <c r="G147" s="3">
-        <v>401.6628</v>
+        <v>325.15559999999999</v>
       </c>
       <c r="H147" s="3">
-        <v>422.43390000000005</v>
+        <v>341.97030000000001</v>
       </c>
       <c r="I147" s="3">
-        <v>426.73365000000001</v>
+        <v>345.45105000000001</v>
       </c>
       <c r="J147" s="3">
-        <v>431.73900000000009</v>
+        <v>349.50300000000004</v>
       </c>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.25">
@@ -5117,31 +5159,31 @@
         <v>147</v>
       </c>
       <c r="B148" s="3">
-        <v>104.49495000000002</v>
+        <v>84.591149999999999</v>
       </c>
       <c r="C148" s="3">
-        <v>124.69275</v>
+        <v>100.94175</v>
       </c>
       <c r="D148" s="3">
-        <v>164.31659999999999</v>
+        <v>133.01819999999998</v>
       </c>
       <c r="E148" s="3">
-        <v>228.48210000000003</v>
+        <v>184.96170000000004</v>
       </c>
       <c r="F148" s="3">
-        <v>364.75110000000001</v>
+        <v>295.2747</v>
       </c>
       <c r="G148" s="3">
-        <v>404.39700000000005</v>
+        <v>327.36900000000003</v>
       </c>
       <c r="H148" s="3">
-        <v>425.30040000000002</v>
+        <v>344.29079999999999</v>
       </c>
       <c r="I148" s="3">
-        <v>429.62220000000008</v>
+        <v>347.7894</v>
       </c>
       <c r="J148" s="3">
-        <v>434.67165000000006</v>
+        <v>351.87705</v>
       </c>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.25">
@@ -5149,31 +5191,31 @@
         <v>148</v>
       </c>
       <c r="B149" s="3">
-        <v>105.17850000000003</v>
+        <v>85.144500000000008</v>
       </c>
       <c r="C149" s="3">
-        <v>125.48654999999999</v>
+        <v>101.58435</v>
       </c>
       <c r="D149" s="3">
-        <v>165.41910000000001</v>
+        <v>133.91069999999999</v>
       </c>
       <c r="E149" s="3">
-        <v>230.02560000000003</v>
+        <v>186.21119999999999</v>
       </c>
       <c r="F149" s="3">
-        <v>367.19865000000004</v>
+        <v>297.25605000000002</v>
       </c>
       <c r="G149" s="3">
-        <v>407.10915000000006</v>
+        <v>329.56455</v>
       </c>
       <c r="H149" s="3">
-        <v>428.16690000000006</v>
+        <v>346.61130000000003</v>
       </c>
       <c r="I149" s="3">
-        <v>432.53280000000007</v>
+        <v>350.1456</v>
       </c>
       <c r="J149" s="3">
-        <v>437.60430000000002</v>
+        <v>354.25110000000001</v>
       </c>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.25">
@@ -5181,31 +5223,31 @@
         <v>149</v>
       </c>
       <c r="B150" s="3">
-        <v>105.86205</v>
+        <v>85.697850000000003</v>
       </c>
       <c r="C150" s="3">
-        <v>126.32445</v>
+        <v>102.26264999999999</v>
       </c>
       <c r="D150" s="3">
-        <v>166.52159999999998</v>
+        <v>134.80319999999998</v>
       </c>
       <c r="E150" s="3">
-        <v>231.54705000000001</v>
+        <v>187.44285000000002</v>
       </c>
       <c r="F150" s="3">
-        <v>369.66825000000006</v>
+        <v>299.25525000000005</v>
       </c>
       <c r="G150" s="3">
-        <v>409.84335000000004</v>
+        <v>331.77794999999998</v>
       </c>
       <c r="H150" s="3">
-        <v>431.03339999999997</v>
+        <v>348.93179999999995</v>
       </c>
       <c r="I150" s="3">
-        <v>435.42135000000002</v>
+        <v>352.48394999999999</v>
       </c>
       <c r="J150" s="3">
-        <v>440.53695000000005</v>
+        <v>356.62515000000002</v>
       </c>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.25">
@@ -5213,34 +5255,35 @@
         <v>150</v>
       </c>
       <c r="B151" s="3">
-        <v>106.54560000000001</v>
+        <v>86.251200000000011</v>
       </c>
       <c r="C151" s="3">
-        <v>127.14030000000001</v>
+        <v>102.92309999999999</v>
       </c>
       <c r="D151" s="3">
-        <v>167.60205000000002</v>
+        <v>135.67785000000001</v>
       </c>
       <c r="E151" s="3">
-        <v>233.06850000000003</v>
+        <v>188.67450000000002</v>
       </c>
       <c r="F151" s="3">
-        <v>372.11580000000004</v>
+        <v>301.23660000000001</v>
       </c>
       <c r="G151" s="3">
-        <v>412.55550000000005</v>
+        <v>333.9735</v>
       </c>
       <c r="H151" s="3">
-        <v>433.8999</v>
+        <v>351.25229999999999</v>
       </c>
       <c r="I151" s="3">
-        <v>438.33195000000001</v>
+        <v>354.84014999999999</v>
       </c>
       <c r="J151" s="3">
-        <v>443.46960000000007</v>
+        <v>358.99920000000003</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>